--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>-1.328515016723297</v>
+      </c>
+      <c r="C2">
+        <v>-0.1943679340728499</v>
+      </c>
+      <c r="D2">
+        <v>0.1279126302113343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>-0.5054528330916636</v>
+      </c>
+      <c r="C3">
+        <v>0.1723056527330369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>0.03387050599541896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>-0.1576029929211433</v>
+      </c>
+      <c r="C5">
+        <v>0.08370791838206702</v>
+      </c>
+      <c r="D5">
+        <v>-0.5325856247797596</v>
+      </c>
+      <c r="E5">
+        <v>0.3563979037600292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.08922863123516991</v>
-      </c>
-      <c r="C2">
-        <v>-0.1074594810408764</v>
-      </c>
-      <c r="D2">
-        <v>0.4062342299276391</v>
-      </c>
-      <c r="E2">
-        <v>0.09710569627175658</v>
-      </c>
-      <c r="F2">
-        <v>-0.07394135313446104</v>
-      </c>
-      <c r="G2">
-        <v>-0.1231626457880888</v>
-      </c>
-      <c r="H2">
-        <v>-0.06068480850749156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>-0.07125262202772548</v>
+      </c>
+      <c r="C6">
+        <v>-0.3452719214403277</v>
+      </c>
+      <c r="D6">
+        <v>0.3824870481670368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>-0.07586339229595669</v>
-      </c>
-      <c r="C3">
-        <v>0.4073705495907254</v>
-      </c>
-      <c r="D3">
-        <v>0.1008275513640984</v>
-      </c>
-      <c r="E3">
-        <v>-0.06385218973878101</v>
-      </c>
-      <c r="F3">
-        <v>-0.1119941255458304</v>
-      </c>
-      <c r="G3">
-        <v>-0.05050203602008054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>-0.4334046033635957</v>
+      </c>
+      <c r="C7">
+        <v>0.3761111692419861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.425068834240214</v>
-      </c>
-      <c r="C4">
-        <v>0.09790118412583107</v>
-      </c>
-      <c r="D4">
-        <v>-0.060827449711661</v>
-      </c>
-      <c r="E4">
-        <v>-0.1048467734207739</v>
-      </c>
-      <c r="F4">
-        <v>-0.04365785622099869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.2167315973803999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.02120269103765071</v>
-      </c>
-      <c r="C5">
-        <v>-0.02792564539135866</v>
-      </c>
-      <c r="D5">
-        <v>-0.105313048523256</v>
-      </c>
-      <c r="E5">
-        <v>-0.06431158099812642</v>
-      </c>
-      <c r="F5">
-        <v>-0.09588812184614864</v>
-      </c>
-      <c r="G5">
-        <v>-0.08648643044537328</v>
-      </c>
-      <c r="H5">
-        <v>-0.141176721443391</v>
-      </c>
-      <c r="I5">
-        <v>-0.1405747196670342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>0.1993657528183643</v>
+      </c>
+      <c r="C9">
+        <v>-0.05223422598338177</v>
+      </c>
+      <c r="D9">
+        <v>-0.4514615362856043</v>
+      </c>
+      <c r="E9">
+        <v>-0.8042797126000355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>-0.03125249424009232</v>
-      </c>
-      <c r="C6">
-        <v>-0.1030306117615938</v>
-      </c>
-      <c r="D6">
-        <v>-0.06384894673918215</v>
-      </c>
-      <c r="E6">
-        <v>-0.09650038208404892</v>
-      </c>
-      <c r="F6">
-        <v>-0.08698482946964604</v>
-      </c>
-      <c r="G6">
-        <v>-0.141502305754708</v>
-      </c>
-      <c r="H6">
-        <v>-0.1408924855581536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>-0.004546923458420275</v>
+      </c>
+      <c r="C10">
+        <v>-0.4367534036523173</v>
+      </c>
+      <c r="D10">
+        <v>-0.8264247691453906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>-0.100015566245732</v>
-      </c>
-      <c r="C7">
-        <v>-0.0706673914612094</v>
-      </c>
-      <c r="D7">
-        <v>-0.1002505712689799</v>
-      </c>
-      <c r="E7">
-        <v>-0.08862901626390912</v>
-      </c>
-      <c r="F7">
-        <v>-0.1433113399570706</v>
-      </c>
-      <c r="G7">
-        <v>-0.1430691316696822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>-0.4369684432844069</v>
+      </c>
+      <c r="C11">
+        <v>-0.828410007204739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>-0.05457772690172211</v>
-      </c>
-      <c r="C8">
-        <v>-0.111423379446776</v>
-      </c>
-      <c r="D8">
-        <v>-0.09099378094324433</v>
-      </c>
-      <c r="E8">
-        <v>-0.1402708946670885</v>
-      </c>
-      <c r="F8">
-        <v>-0.1405866119985639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>-0.9768638039877853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>-0.1001558973929689</v>
-      </c>
-      <c r="C9">
-        <v>-0.09442354708881041</v>
-      </c>
-      <c r="D9">
-        <v>-0.1393785359560571</v>
-      </c>
-      <c r="E9">
-        <v>-0.1368344208351454</v>
-      </c>
-      <c r="F9">
-        <v>-0.5617894316432253</v>
-      </c>
-      <c r="G9">
-        <v>-0.06469607893433379</v>
-      </c>
-      <c r="H9">
-        <v>-0.1361110912149772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>-1.082209677875168</v>
+      </c>
+      <c r="C13">
+        <v>0.9399969596661848</v>
+      </c>
+      <c r="D13">
+        <v>-0.4052363005016735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>-0.08172735377183406</v>
-      </c>
-      <c r="C10">
-        <v>-0.154726053085174</v>
-      </c>
-      <c r="D10">
-        <v>-0.1432844572084272</v>
-      </c>
-      <c r="E10">
-        <v>-0.5627153841927488</v>
-      </c>
-      <c r="F10">
-        <v>-0.06612841147765022</v>
-      </c>
-      <c r="G10">
-        <v>-0.1384454817218713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>0.6506827054586314</v>
+      </c>
+      <c r="C14">
+        <v>-0.5821239067443658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>-0.1417410589709887</v>
-      </c>
-      <c r="C11">
-        <v>-0.1527295311256508</v>
-      </c>
-      <c r="D11">
-        <v>-0.5653595962686611</v>
-      </c>
-      <c r="E11">
-        <v>-0.06443054994553479</v>
-      </c>
-      <c r="F11">
-        <v>-0.1371012140800458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>-0.1673936659195722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>-0.1285203708926958</v>
-      </c>
-      <c r="C12">
-        <v>-0.5797096631503538</v>
-      </c>
-      <c r="D12">
-        <v>-0.06734231989837314</v>
-      </c>
-      <c r="E12">
-        <v>-0.132623466320441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>-0.5618027887420541</v>
-      </c>
-      <c r="C13">
-        <v>-0.08525510183841023</v>
-      </c>
-      <c r="D13">
-        <v>-0.1395724485851657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.01626085805318254</v>
-      </c>
-      <c r="C14">
-        <v>-0.1911884793025465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>-0.2076320467005537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-1.328515016723297</v>
+        <v>-0.1664298907891865</v>
       </c>
       <c r="C2">
-        <v>-0.1943679340728499</v>
+        <v>-0.04869585134476913</v>
       </c>
       <c r="D2">
-        <v>0.1279126302113343</v>
+        <v>0.5433751427531116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.5054528330916636</v>
+        <v>-0.3597807503635829</v>
       </c>
       <c r="C3">
-        <v>0.1723056527330369</v>
+        <v>0.5877681652748142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03387050599541896</v>
+        <v>0.4493330185371963</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.1576029929211433</v>
+        <v>0.3237572684721769</v>
       </c>
       <c r="C5">
-        <v>0.08370791838206702</v>
+        <v>0.09851611570591239</v>
       </c>
       <c r="D5">
-        <v>-0.5325856247797596</v>
+        <v>-0.1617696342879523</v>
       </c>
       <c r="E5">
-        <v>0.3563979037600292</v>
+        <v>-0.01038665294713449</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.07125262202772548</v>
+        <v>-0.05644442470388011</v>
       </c>
       <c r="C6">
-        <v>-0.3452719214403277</v>
+        <v>0.02554406905147947</v>
       </c>
       <c r="D6">
-        <v>0.3824870481670368</v>
+        <v>0.01570249145987312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.4334046033635957</v>
+        <v>-0.06258861287178845</v>
       </c>
       <c r="C7">
-        <v>0.3761111692419861</v>
+        <v>0.009326612534822337</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2167315973803999</v>
+        <v>-0.1500529593267638</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1993657528183643</v>
+        <v>0.09935271978382244</v>
       </c>
       <c r="C9">
-        <v>-0.05223422598338177</v>
+        <v>-0.04610865354300479</v>
       </c>
       <c r="D9">
-        <v>-0.4514615362856043</v>
+        <v>-0.1002609095359117</v>
       </c>
       <c r="E9">
-        <v>-0.8042797126000355</v>
+        <v>-0.05204930396077505</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.004546923458420275</v>
+        <v>0.001578648981956705</v>
       </c>
       <c r="C10">
-        <v>-0.4367534036523173</v>
+        <v>-0.08555277690262475</v>
       </c>
       <c r="D10">
-        <v>-0.8264247691453906</v>
+        <v>-0.07419436050613024</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.4369684432844069</v>
+        <v>-0.08576781653471441</v>
       </c>
       <c r="C11">
-        <v>-0.828410007204739</v>
+        <v>-0.07617959856547851</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.9768638039877853</v>
+        <v>-0.2246333953485248</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-1.082209677875168</v>
+        <v>-0.7536610307181386</v>
       </c>
       <c r="C13">
-        <v>0.9399969596661848</v>
+        <v>0.06605150356014075</v>
       </c>
       <c r="D13">
-        <v>-0.4052363005016735</v>
+        <v>0.04927257475788877</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6506827054586314</v>
+        <v>-0.2232627506474126</v>
       </c>
       <c r="C14">
-        <v>-0.5821239067443658</v>
+        <v>-0.1276150314848035</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.1673936659195722</v>
+        <v>0.2871152093399901</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.054049169846527</v>
+      </c>
+      <c r="C2">
+        <v>1.504842033390642</v>
+      </c>
+      <c r="D2">
+        <v>-0.2740116887969869</v>
+      </c>
+      <c r="E2">
+        <v>0.2196119671508182</v>
+      </c>
+      <c r="F2">
+        <v>0.0710251283317121</v>
+      </c>
+      <c r="G2">
+        <v>0.2743117583272802</v>
+      </c>
+      <c r="H2">
+        <v>0.2454167163658745</v>
+      </c>
+      <c r="I2">
+        <v>0.1503314050918559</v>
+      </c>
+      <c r="J2">
+        <v>0.2335581663120806</v>
+      </c>
+      <c r="K2">
+        <v>-0.3123310650472481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.611773849980692</v>
+      </c>
+      <c r="C3">
+        <v>-0.4553990242875359</v>
+      </c>
+      <c r="D3">
+        <v>0.4615276376114515</v>
+      </c>
+      <c r="E3">
+        <v>-0.05322505481677026</v>
+      </c>
+      <c r="F3">
+        <v>0.4027835485063178</v>
+      </c>
+      <c r="G3">
+        <v>-0.02271726649712489</v>
+      </c>
+      <c r="H3">
+        <v>0.2881151731448395</v>
+      </c>
+      <c r="I3">
+        <v>-0.4161327764119521</v>
+      </c>
+      <c r="J3">
+        <v>0.08536089098802299</v>
+      </c>
+      <c r="K3">
+        <v>0.284926508514224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.7605222146516541</v>
+      </c>
+      <c r="C4">
+        <v>-0.2737249530742729</v>
+      </c>
+      <c r="D4">
+        <v>0.4861042363106117</v>
+      </c>
+      <c r="E4">
+        <v>-0.07740480936870024</v>
+      </c>
+      <c r="F4">
+        <v>0.2825427603547671</v>
+      </c>
+      <c r="G4">
+        <v>-0.4331068575940579</v>
+      </c>
+      <c r="H4">
+        <v>0.06751935410201088</v>
+      </c>
+      <c r="I4">
+        <v>0.2701495781341583</v>
+      </c>
+      <c r="J4">
+        <v>-0.2321001122458894</v>
+      </c>
+      <c r="K4">
+        <v>0.1691897101860816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.619291690974914</v>
+      </c>
+      <c r="C5">
+        <v>-0.1690677648878158</v>
+      </c>
+      <c r="D5">
+        <v>0.3623619388472306</v>
+      </c>
+      <c r="E5">
+        <v>-0.4742535500237</v>
+      </c>
+      <c r="F5">
+        <v>0.1062458560340796</v>
+      </c>
+      <c r="G5">
+        <v>0.2588289662930042</v>
+      </c>
+      <c r="H5">
+        <v>-0.2132427683255327</v>
+      </c>
+      <c r="I5">
+        <v>0.1703078661013698</v>
+      </c>
+      <c r="J5">
+        <v>-0.720003707662225</v>
+      </c>
+      <c r="K5">
+        <v>-0.1257100406063963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.5329052055690304</v>
+      </c>
+      <c r="C6">
+        <v>-0.5777337426689015</v>
+      </c>
+      <c r="D6">
+        <v>0.1732834997199102</v>
+      </c>
+      <c r="E6">
+        <v>0.220821015457967</v>
+      </c>
+      <c r="F6">
+        <v>-0.1866427507468152</v>
+      </c>
+      <c r="G6">
+        <v>0.1571974100980369</v>
+      </c>
+      <c r="H6">
+        <v>-0.7087197329499574</v>
+      </c>
+      <c r="I6">
+        <v>-0.1294042645788563</v>
+      </c>
+      <c r="J6">
+        <v>0.4831489612574651</v>
+      </c>
+      <c r="K6">
+        <v>-0.4244694600698171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.2879450106263302</v>
+      </c>
+      <c r="C7">
+        <v>0.1778781143000042</v>
+      </c>
+      <c r="D7">
+        <v>-0.142720298275052</v>
+      </c>
+      <c r="E7">
+        <v>0.1551252688910708</v>
+      </c>
+      <c r="F7">
+        <v>-0.6868748567608839</v>
+      </c>
+      <c r="G7">
+        <v>-0.119787681473019</v>
+      </c>
+      <c r="H7">
+        <v>0.4988873177603203</v>
+      </c>
+      <c r="I7">
+        <v>-0.4117088339860341</v>
+      </c>
+      <c r="J7">
+        <v>0.2943033781772607</v>
+      </c>
+      <c r="K7">
+        <v>0.2908920762476144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.168312869047781</v>
+      </c>
+      <c r="C8">
+        <v>0.1657324139451984</v>
+      </c>
+      <c r="D8">
+        <v>-0.6964077009507706</v>
+      </c>
+      <c r="E8">
+        <v>-0.1185321379032588</v>
+      </c>
+      <c r="F8">
+        <v>0.4944246148700076</v>
+      </c>
+      <c r="G8">
+        <v>-0.4131651894052036</v>
+      </c>
+      <c r="H8">
+        <v>0.2912808987430462</v>
+      </c>
+      <c r="I8">
+        <v>0.2886763822524853</v>
+      </c>
+      <c r="J8">
+        <v>-0.2097978924824339</v>
+      </c>
+      <c r="K8">
+        <v>-0.1106916620974746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.8394931903746196</v>
+      </c>
+      <c r="C9">
+        <v>-0.04010054102734713</v>
+      </c>
+      <c r="D9">
+        <v>0.4452079229676786</v>
+      </c>
+      <c r="E9">
+        <v>-0.3890379607204555</v>
+      </c>
+      <c r="F9">
+        <v>0.2732842573276001</v>
+      </c>
+      <c r="G9">
+        <v>0.294872182919561</v>
+      </c>
+      <c r="H9">
+        <v>-0.21749670306024</v>
+      </c>
+      <c r="I9">
+        <v>-0.1104099171948289</v>
+      </c>
+      <c r="J9">
+        <v>-0.1144703084337619</v>
+      </c>
+      <c r="K9">
+        <v>0.1878561024944725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.0279808084442843</v>
+      </c>
+      <c r="C10">
+        <v>-0.134186217321377</v>
+      </c>
+      <c r="D10">
+        <v>0.1280251461610875</v>
+      </c>
+      <c r="E10">
+        <v>0.3859129906300438</v>
+      </c>
+      <c r="F10">
+        <v>-0.2658616971774138</v>
+      </c>
+      <c r="G10">
+        <v>-0.07654818492857021</v>
+      </c>
+      <c r="H10">
+        <v>-0.1291049390893971</v>
+      </c>
+      <c r="I10">
+        <v>0.2018221525728795</v>
+      </c>
+      <c r="J10">
+        <v>-0.01637693112903568</v>
+      </c>
+      <c r="K10">
+        <v>-0.4056676591084612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.5505009309989176</v>
+      </c>
+      <c r="C11">
+        <v>0.1018423460981529</v>
+      </c>
+      <c r="D11">
+        <v>-0.1328239241981798</v>
+      </c>
+      <c r="E11">
+        <v>-0.1897051359461788</v>
+      </c>
+      <c r="F11">
+        <v>-0.09694799622084638</v>
+      </c>
+      <c r="G11">
+        <v>0.1482086862398747</v>
+      </c>
+      <c r="H11">
+        <v>-0.01936481288576621</v>
+      </c>
+      <c r="I11">
+        <v>-0.4385372117501379</v>
+      </c>
+      <c r="J11">
+        <v>0.372798605199044</v>
+      </c>
+      <c r="K11">
+        <v>-0.233903777054444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.07603278190503292</v>
+      </c>
+      <c r="C12">
+        <v>-0.2286102748726316</v>
+      </c>
+      <c r="D12">
+        <v>-0.07815719867499328</v>
+      </c>
+      <c r="E12">
+        <v>0.1322223647129119</v>
+      </c>
+      <c r="F12">
+        <v>-0.01439339883612244</v>
+      </c>
+      <c r="G12">
+        <v>-0.4461928054113105</v>
+      </c>
+      <c r="H12">
+        <v>0.3727491580925119</v>
+      </c>
+      <c r="I12">
+        <v>-0.2385340078537386</v>
+      </c>
+      <c r="J12">
+        <v>-0.4318129604953201</v>
+      </c>
+      <c r="K12">
+        <v>-0.03581648909795633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.2739337649521302</v>
+      </c>
+      <c r="C13">
+        <v>0.2478720344830213</v>
+      </c>
+      <c r="D13">
+        <v>-0.08383666730701084</v>
+      </c>
+      <c r="E13">
+        <v>-0.405628221849395</v>
+      </c>
+      <c r="F13">
+        <v>0.3479317097958357</v>
+      </c>
+      <c r="G13">
+        <v>-0.2244922408930955</v>
+      </c>
+      <c r="H13">
+        <v>-0.4408668613996343</v>
+      </c>
+      <c r="I13">
+        <v>-0.03114363405446358</v>
+      </c>
+      <c r="J13">
+        <v>0.06308272679657889</v>
+      </c>
+      <c r="K13">
+        <v>-0.4334888941437737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.1068835430532797</v>
+      </c>
+      <c r="C14">
+        <v>-0.384720152704799</v>
+      </c>
+      <c r="D14">
+        <v>0.3433876597821849</v>
+      </c>
+      <c r="E14">
+        <v>-0.2143048467096339</v>
+      </c>
+      <c r="F14">
+        <v>-0.4392021825428093</v>
+      </c>
+      <c r="G14">
+        <v>-0.02455046767847792</v>
+      </c>
+      <c r="H14">
+        <v>0.06682721425889945</v>
+      </c>
+      <c r="I14">
+        <v>-0.4280986787535278</v>
+      </c>
+      <c r="J14">
+        <v>-0.7310847158649334</v>
+      </c>
+      <c r="K14">
+        <v>0.5706725229265484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.3432789624028624</v>
+      </c>
+      <c r="C15">
+        <v>-0.2252730479242543</v>
+      </c>
+      <c r="D15">
+        <v>-0.4433036489553422</v>
+      </c>
+      <c r="E15">
+        <v>-0.03295408223801938</v>
+      </c>
+      <c r="F15">
+        <v>0.06110503982978654</v>
+      </c>
+      <c r="G15">
+        <v>-0.4354847618259405</v>
+      </c>
+      <c r="H15">
+        <v>-0.7374422929132043</v>
+      </c>
+      <c r="I15">
+        <v>0.5636813742686262</v>
+      </c>
+      <c r="J15">
+        <v>0.5630363638553576</v>
+      </c>
+      <c r="K15">
+        <v>-0.3365933855580339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.2148861085577528</v>
+      </c>
+      <c r="C16">
+        <v>-0.1479058661610976</v>
+      </c>
+      <c r="D16">
+        <v>0.1397887098069372</v>
+      </c>
+      <c r="E16">
+        <v>-0.4659524948466186</v>
+      </c>
+      <c r="F16">
+        <v>-0.7063823969388959</v>
+      </c>
+      <c r="G16">
+        <v>0.5600583725195012</v>
+      </c>
+      <c r="H16">
+        <v>0.5789641985972922</v>
+      </c>
+      <c r="I16">
+        <v>-0.3316865300782133</v>
+      </c>
+      <c r="J16">
+        <v>0.674313632032851</v>
+      </c>
+      <c r="K16">
+        <v>-0.6290666010437573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2007742000929676</v>
+      </c>
+      <c r="C17">
+        <v>-0.2867277067645233</v>
+      </c>
+      <c r="D17">
+        <v>-0.8032558974075208</v>
+      </c>
+      <c r="E17">
+        <v>0.6076837561280478</v>
+      </c>
+      <c r="F17">
+        <v>0.5510548222952787</v>
+      </c>
+      <c r="G17">
+        <v>-0.3200589840883943</v>
+      </c>
+      <c r="H17">
+        <v>0.6652081679528105</v>
+      </c>
+      <c r="I17">
+        <v>-0.6272778042838831</v>
+      </c>
+      <c r="J17">
+        <v>-0.3311100819951341</v>
+      </c>
+      <c r="K17">
+        <v>-0.3291555589435655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.4658930160006631</v>
+      </c>
+      <c r="C18">
+        <v>-0.7133510622843573</v>
+      </c>
+      <c r="D18">
+        <v>0.5582359526407188</v>
+      </c>
+      <c r="E18">
+        <v>0.5728535393575385</v>
+      </c>
+      <c r="F18">
+        <v>-0.3346056855627243</v>
+      </c>
+      <c r="G18">
+        <v>0.6691954456419811</v>
+      </c>
+      <c r="H18">
+        <v>-0.6327411108224426</v>
+      </c>
+      <c r="I18">
+        <v>-0.3317545357715714</v>
+      </c>
+      <c r="J18">
+        <v>-0.3322571411601675</v>
+      </c>
+      <c r="K18">
+        <v>0.4120560305663448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.7080669566657783</v>
+      </c>
+      <c r="C19">
+        <v>0.5346215957326687</v>
+      </c>
+      <c r="D19">
+        <v>0.5660786297614319</v>
+      </c>
+      <c r="E19">
+        <v>-0.350869156136651</v>
+      </c>
+      <c r="F19">
+        <v>0.6582346866733105</v>
+      </c>
+      <c r="G19">
+        <v>-0.646653301496338</v>
+      </c>
+      <c r="H19">
+        <v>-0.3440290691351285</v>
+      </c>
+      <c r="I19">
+        <v>-0.3454379331200693</v>
+      </c>
+      <c r="J19">
+        <v>0.3993755604725862</v>
+      </c>
+      <c r="K19">
+        <v>0.6805068886614397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.2903884450430213</v>
+      </c>
+      <c r="C20">
+        <v>0.7097890346793292</v>
+      </c>
+      <c r="D20">
+        <v>-0.4195034471793016</v>
+      </c>
+      <c r="E20">
+        <v>0.7044428197282627</v>
+      </c>
+      <c r="F20">
+        <v>-0.6624416745351365</v>
+      </c>
+      <c r="G20">
+        <v>-0.3263587541052386</v>
+      </c>
+      <c r="H20">
+        <v>-0.3458240075971326</v>
+      </c>
+      <c r="I20">
+        <v>0.4087337529742918</v>
+      </c>
+      <c r="J20">
+        <v>0.6846065294802819</v>
+      </c>
+      <c r="K20">
+        <v>0.4913338777715071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.114405471535011</v>
+      </c>
+      <c r="C21">
+        <v>-0.083519219866623</v>
+      </c>
+      <c r="D21">
+        <v>0.5354002829794555</v>
+      </c>
+      <c r="E21">
+        <v>-0.5600342421207036</v>
+      </c>
+      <c r="F21">
+        <v>-0.3696819333223905</v>
+      </c>
+      <c r="G21">
+        <v>-0.3109223468240641</v>
+      </c>
+      <c r="H21">
+        <v>0.4016467057022085</v>
+      </c>
+      <c r="I21">
+        <v>0.7000578584313288</v>
+      </c>
+      <c r="J21">
+        <v>0.4946871344982792</v>
+      </c>
+      <c r="K21">
+        <v>0.1253453143853887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.01417524865474379</v>
+      </c>
+      <c r="C22">
+        <v>0.5420929106245922</v>
+      </c>
+      <c r="D22">
+        <v>-0.5233659264891628</v>
+      </c>
+      <c r="E22">
+        <v>-0.3390259997335363</v>
+      </c>
+      <c r="F22">
+        <v>-0.2820743490986328</v>
+      </c>
+      <c r="G22">
+        <v>0.4339477230372309</v>
+      </c>
+      <c r="H22">
+        <v>0.7292848598315985</v>
+      </c>
+      <c r="I22">
+        <v>0.5261638118306764</v>
+      </c>
+      <c r="J22">
+        <v>0.1553199265687449</v>
+      </c>
+      <c r="K22">
+        <v>2.166926221925169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.8638480677265885</v>
+      </c>
+      <c r="C23">
+        <v>-0.7243306925015239</v>
+      </c>
+      <c r="D23">
+        <v>-0.289193707480482</v>
+      </c>
+      <c r="E23">
+        <v>-0.3501428451814179</v>
+      </c>
+      <c r="F23">
+        <v>0.4215819581336694</v>
+      </c>
+      <c r="G23">
+        <v>0.6905733849747189</v>
+      </c>
+      <c r="H23">
+        <v>0.4999349668319114</v>
+      </c>
+      <c r="I23">
+        <v>0.1231670462376172</v>
+      </c>
+      <c r="J23">
+        <v>2.137589427391997</v>
+      </c>
+      <c r="K23">
+        <v>0.008554865393815871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.8264082121192822</v>
+      </c>
+      <c r="C24">
+        <v>-0.2508850810170359</v>
+      </c>
+      <c r="D24">
+        <v>-0.3884273005650942</v>
+      </c>
+      <c r="E24">
+        <v>0.4248428544183068</v>
+      </c>
+      <c r="F24">
+        <v>0.6715991720790697</v>
+      </c>
+      <c r="G24">
+        <v>0.4927530885472903</v>
+      </c>
+      <c r="H24">
+        <v>0.1097787292668877</v>
+      </c>
+      <c r="I24">
+        <v>2.127447317938199</v>
+      </c>
+      <c r="J24">
+        <v>-0.003276326107601132</v>
+      </c>
+      <c r="K24">
+        <v>-0.3089276974374213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-0.06463209023894709</v>
+      </c>
+      <c r="C25">
+        <v>-0.521559506567266</v>
+      </c>
+      <c r="D25">
+        <v>0.4895236104639617</v>
+      </c>
+      <c r="E25">
+        <v>0.6229407706366878</v>
+      </c>
+      <c r="F25">
+        <v>0.5099742948089054</v>
+      </c>
+      <c r="G25">
+        <v>0.08906193997041144</v>
+      </c>
+      <c r="H25">
+        <v>2.128533680929012</v>
+      </c>
+      <c r="I25">
+        <v>-0.01467854270729655</v>
+      </c>
+      <c r="J25">
+        <v>-0.3131939433936758</v>
+      </c>
+      <c r="K25">
+        <v>-0.08879790443027424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.6520698539071683</v>
+      </c>
+      <c r="C26">
+        <v>0.5713814409490373</v>
+      </c>
+      <c r="D26">
+        <v>0.5997976031114685</v>
+      </c>
+      <c r="E26">
+        <v>0.5357284468000743</v>
+      </c>
+      <c r="F26">
+        <v>0.09227690411854578</v>
+      </c>
+      <c r="G26">
+        <v>2.141784679481501</v>
+      </c>
+      <c r="H26">
+        <v>-0.005698896320427103</v>
+      </c>
+      <c r="I26">
+        <v>-0.3025303771938458</v>
+      </c>
+      <c r="J26">
+        <v>-0.07870626709253685</v>
+      </c>
+      <c r="K26">
+        <v>0.007603447643190639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.28611027902032</v>
+      </c>
+      <c r="C27">
+        <v>0.7471796369522978</v>
+      </c>
+      <c r="D27">
+        <v>0.471097866583177</v>
+      </c>
+      <c r="E27">
+        <v>0.1318501855829672</v>
+      </c>
+      <c r="F27">
+        <v>2.129772727784024</v>
+      </c>
+      <c r="G27">
+        <v>0.00799358042629307</v>
+      </c>
+      <c r="H27">
+        <v>-0.301723509800176</v>
+      </c>
+      <c r="I27">
+        <v>-0.07140411945208981</v>
+      </c>
+      <c r="J27">
+        <v>0.0116151464603234</v>
+      </c>
+      <c r="K27">
+        <v>0.4816546107097487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.8608743148745941</v>
+      </c>
+      <c r="C28">
+        <v>0.4107148159707749</v>
+      </c>
+      <c r="D28">
+        <v>0.1567737762602209</v>
+      </c>
+      <c r="E28">
+        <v>2.113797076144924</v>
+      </c>
+      <c r="F28">
+        <v>0.01164190153124833</v>
+      </c>
+      <c r="G28">
+        <v>-0.3074678797019153</v>
+      </c>
+      <c r="H28">
+        <v>-0.0726605040737531</v>
+      </c>
+      <c r="I28">
+        <v>0.008217790314260197</v>
+      </c>
+      <c r="J28">
+        <v>0.4792771179961435</v>
+      </c>
+      <c r="K28">
+        <v>0.1445804400881856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.3497760694427562</v>
+      </c>
+      <c r="C29">
+        <v>0.008271803882799106</v>
+      </c>
+      <c r="D29">
+        <v>2.073149589886984</v>
+      </c>
+      <c r="E29">
+        <v>-0.06154569567438904</v>
+      </c>
+      <c r="F29">
+        <v>-0.3616981402823287</v>
+      </c>
+      <c r="G29">
+        <v>-0.1345633954494031</v>
+      </c>
+      <c r="H29">
+        <v>-0.04992388552070812</v>
+      </c>
+      <c r="I29">
+        <v>0.4194700014628313</v>
+      </c>
+      <c r="J29">
+        <v>0.08555312083775651</v>
+      </c>
+      <c r="K29">
+        <v>-0.08107550272436534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.2742649466732034</v>
+      </c>
+      <c r="C30">
+        <v>2.049200279375919</v>
+      </c>
+      <c r="D30">
+        <v>0.01068849708086921</v>
+      </c>
+      <c r="E30">
+        <v>-0.3303211256149685</v>
+      </c>
+      <c r="F30">
+        <v>-0.08823897953116874</v>
+      </c>
+      <c r="G30">
+        <v>-0.00963352430345854</v>
+      </c>
+      <c r="H30">
+        <v>0.4620577662242013</v>
+      </c>
+      <c r="I30">
+        <v>0.1272301462652262</v>
+      </c>
+      <c r="J30">
+        <v>-0.03904511370095048</v>
+      </c>
+      <c r="K30">
+        <v>-0.08314295059893091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>1.950309979567804</v>
+      </c>
+      <c r="C31">
+        <v>0.1132664947122722</v>
+      </c>
+      <c r="D31">
+        <v>-0.2780902111575203</v>
+      </c>
+      <c r="E31">
+        <v>-0.07209279976597981</v>
+      </c>
+      <c r="F31">
+        <v>0.03377528300153273</v>
+      </c>
+      <c r="G31">
+        <v>0.5002715839462306</v>
+      </c>
+      <c r="H31">
+        <v>0.1633688861124733</v>
+      </c>
+      <c r="I31">
+        <v>-0.001691398776348248</v>
+      </c>
+      <c r="J31">
+        <v>-0.04568495174066966</v>
+      </c>
+      <c r="K31">
+        <v>0.01645514073175594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.4760504734034924</v>
+      </c>
+      <c r="C32">
+        <v>0.361840107985436</v>
+      </c>
+      <c r="D32">
+        <v>-0.4172985000989091</v>
+      </c>
+      <c r="E32">
+        <v>-0.1554491050792698</v>
+      </c>
+      <c r="F32">
+        <v>0.64207262268475</v>
+      </c>
+      <c r="G32">
+        <v>0.1611933885905487</v>
+      </c>
+      <c r="H32">
+        <v>-0.08993328161446913</v>
+      </c>
+      <c r="I32">
+        <v>-0.05888275865455335</v>
+      </c>
+      <c r="J32">
+        <v>0.01615264814155834</v>
+      </c>
+      <c r="K32">
+        <v>-0.04787573068872124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.2508928775721025</v>
+      </c>
+      <c r="C33">
+        <v>-0.04935376932711956</v>
+      </c>
+      <c r="D33">
+        <v>0.02681374680356486</v>
+      </c>
+      <c r="E33">
+        <v>0.5050303595152613</v>
+      </c>
+      <c r="F33">
+        <v>0.1708238928247663</v>
+      </c>
+      <c r="G33">
+        <v>0.00223125340812428</v>
+      </c>
+      <c r="H33">
+        <v>-0.04126998915040264</v>
+      </c>
+      <c r="I33">
+        <v>0.02151740444740648</v>
+      </c>
+      <c r="J33">
+        <v>-0.0119198390415904</v>
+      </c>
+      <c r="K33">
+        <v>-0.005828658436992979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>-0.1664298907891865</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>-0.04869585134476913</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>0.5433751427531116</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>0.1705265757161817</v>
+      </c>
+      <c r="F34">
+        <v>-0.02749177067537531</v>
+      </c>
+      <c r="G34">
+        <v>-0.05166729790508037</v>
+      </c>
+      <c r="H34">
+        <v>0.01661308193903023</v>
+      </c>
+      <c r="I34">
+        <v>-0.02445188571078919</v>
+      </c>
+      <c r="J34">
+        <v>-0.01848215362332346</v>
+      </c>
+      <c r="K34">
+        <v>-0.07079361909546847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>-0.3597807503635829</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>0.5877681652748142</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>0.2750279680936576</v>
+      </c>
+      <c r="E35">
+        <v>-0.04791417865892819</v>
+      </c>
+      <c r="F35">
+        <v>-0.05976045638096966</v>
+      </c>
+      <c r="G35">
+        <v>0.04409645269453516</v>
+      </c>
+      <c r="H35">
+        <v>-0.009609457809363826</v>
+      </c>
+      <c r="I35">
+        <v>-0.01148686710468855</v>
+      </c>
+      <c r="J35">
+        <v>-0.0579425229838813</v>
+      </c>
+      <c r="K35">
+        <v>-0.05648460427876935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>0.4493330185371963</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>0.1708406735326888</v>
+      </c>
+      <c r="D36">
+        <v>-0.005422791866464079</v>
+      </c>
+      <c r="E36">
+        <v>-0.06539479260213728</v>
+      </c>
+      <c r="F36">
+        <v>0.005090782467250286</v>
+      </c>
+      <c r="G36">
+        <v>-0.02513230454157445</v>
+      </c>
+      <c r="H36">
+        <v>-0.02264073479046643</v>
+      </c>
+      <c r="I36">
+        <v>-0.07749391263213909</v>
+      </c>
+      <c r="J36">
+        <v>-0.07524682804971911</v>
+      </c>
+      <c r="K36">
+        <v>-0.4993176607488151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>0.3237572684721769</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.09851611570591239</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>-0.1617696342879523</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>-0.01038665294713449</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.005576757930156087</v>
+      </c>
+      <c r="G37">
+        <v>-0.03551272236262563</v>
+      </c>
+      <c r="H37">
+        <v>-0.09313492070045082</v>
+      </c>
+      <c r="I37">
+        <v>-0.07440341878080675</v>
+      </c>
+      <c r="J37">
+        <v>-0.5026911841269848</v>
+      </c>
+      <c r="K37">
+        <v>-0.01005317307386651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>-0.05644442470388011</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.02554406905147947</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>0.01570249145987312</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>-0.03802358313744111</v>
+      </c>
+      <c r="F38">
+        <v>-0.002343283392694016</v>
+      </c>
+      <c r="G38">
+        <v>-0.05904285340066874</v>
+      </c>
+      <c r="H38">
+        <v>-0.06717602134297956</v>
+      </c>
+      <c r="I38">
+        <v>-0.4876445978891031</v>
+      </c>
+      <c r="J38">
+        <v>0.01193847687603373</v>
+      </c>
+      <c r="K38">
+        <v>-0.06125595768424996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.06258861287178845</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>0.009326612534822337</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>-0.02033507208384229</v>
+      </c>
+      <c r="E39">
+        <v>-0.01817317805109044</v>
+      </c>
+      <c r="F39">
+        <v>-0.07323347728570212</v>
+      </c>
+      <c r="G39">
+        <v>-0.07088744816144578</v>
+      </c>
+      <c r="H39">
+        <v>-0.4948612901446716</v>
+      </c>
+      <c r="I39">
+        <v>0.002294864182307552</v>
+      </c>
+      <c r="J39">
+        <v>-0.06906746354454607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.1500529593267638</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>-0.003754188589898096</v>
+      </c>
+      <c r="D40">
+        <v>0.02560489011034632</v>
+      </c>
+      <c r="E40">
+        <v>-0.09518426247187908</v>
+      </c>
+      <c r="F40">
+        <v>-0.08446801047526807</v>
+      </c>
+      <c r="G40">
+        <v>-0.4887985035476189</v>
+      </c>
+      <c r="H40">
+        <v>0.0003692577650489109</v>
+      </c>
+      <c r="I40">
+        <v>-0.07541003034553589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.09935271978382244</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>-0.04610865354300479</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>-0.1002609095359117</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>-0.05204930396077505</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>-0.4891137130391441</v>
+      </c>
+      <c r="G41">
+        <v>-0.002631663850757037</v>
+      </c>
+      <c r="H41">
+        <v>-0.06692295027603015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.001578648981956705</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>-0.08555277690262475</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>-0.07419436050613024</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>-0.4899267746210935</v>
+      </c>
+      <c r="F42">
+        <v>0.00195145029153785</v>
+      </c>
+      <c r="G42">
+        <v>-0.07071487870294063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.08576781653471441</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>-0.07617959856547851</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>-0.4911059148857197</v>
+      </c>
+      <c r="E43">
+        <v>0.001638041260326063</v>
+      </c>
+      <c r="F43">
+        <v>-0.07190427862634607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.2246333953485248</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>-0.4672458837230379</v>
+      </c>
+      <c r="D44">
+        <v>0.07197165846347087</v>
+      </c>
+      <c r="E44">
+        <v>-0.07584527497128354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.7536610307181386</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.06605150356014075</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.04927257475788877</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.2232627506474126</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>-0.1276150314848035</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.2871152093399901</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-1.054049169846527</v>
-      </c>
-      <c r="C2">
-        <v>1.504842033390642</v>
-      </c>
-      <c r="D2">
-        <v>-0.2740116887969869</v>
-      </c>
-      <c r="E2">
-        <v>0.2196119671508182</v>
-      </c>
-      <c r="F2">
-        <v>0.0710251283317121</v>
-      </c>
-      <c r="G2">
-        <v>0.2743117583272802</v>
-      </c>
-      <c r="H2">
-        <v>0.2454167163658745</v>
-      </c>
-      <c r="I2">
-        <v>0.1503314050918559</v>
-      </c>
-      <c r="J2">
-        <v>0.2335581663120806</v>
-      </c>
-      <c r="K2">
-        <v>-0.3123310650472481</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.611773849980692</v>
-      </c>
-      <c r="C3">
-        <v>-0.4553990242875359</v>
-      </c>
-      <c r="D3">
-        <v>0.4615276376114515</v>
-      </c>
-      <c r="E3">
-        <v>-0.05322505481677026</v>
-      </c>
-      <c r="F3">
-        <v>0.4027835485063178</v>
-      </c>
-      <c r="G3">
-        <v>-0.02271726649712489</v>
-      </c>
-      <c r="H3">
-        <v>0.2881151731448395</v>
-      </c>
-      <c r="I3">
-        <v>-0.4161327764119521</v>
-      </c>
-      <c r="J3">
-        <v>0.08536089098802299</v>
-      </c>
-      <c r="K3">
-        <v>0.284926508514224</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.7605222146516541</v>
-      </c>
-      <c r="C4">
-        <v>-0.2737249530742729</v>
-      </c>
-      <c r="D4">
-        <v>0.4861042363106117</v>
-      </c>
-      <c r="E4">
-        <v>-0.07740480936870024</v>
-      </c>
-      <c r="F4">
-        <v>0.2825427603547671</v>
-      </c>
-      <c r="G4">
-        <v>-0.4331068575940579</v>
-      </c>
-      <c r="H4">
-        <v>0.06751935410201088</v>
-      </c>
-      <c r="I4">
-        <v>0.2701495781341583</v>
-      </c>
-      <c r="J4">
-        <v>-0.2321001122458894</v>
-      </c>
-      <c r="K4">
-        <v>0.1691897101860816</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.619291690974914</v>
-      </c>
-      <c r="C5">
-        <v>-0.1690677648878158</v>
-      </c>
-      <c r="D5">
-        <v>0.3623619388472306</v>
-      </c>
-      <c r="E5">
-        <v>-0.4742535500237</v>
-      </c>
-      <c r="F5">
-        <v>0.1062458560340796</v>
-      </c>
-      <c r="G5">
-        <v>0.2588289662930042</v>
-      </c>
-      <c r="H5">
-        <v>-0.2132427683255327</v>
-      </c>
-      <c r="I5">
-        <v>0.1703078661013698</v>
-      </c>
-      <c r="J5">
-        <v>-0.720003707662225</v>
-      </c>
-      <c r="K5">
-        <v>-0.1257100406063963</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.5329052055690304</v>
-      </c>
-      <c r="C6">
-        <v>-0.5777337426689015</v>
-      </c>
-      <c r="D6">
-        <v>0.1732834997199102</v>
-      </c>
-      <c r="E6">
-        <v>0.220821015457967</v>
-      </c>
-      <c r="F6">
-        <v>-0.1866427507468152</v>
-      </c>
-      <c r="G6">
-        <v>0.1571974100980369</v>
-      </c>
-      <c r="H6">
-        <v>-0.7087197329499574</v>
-      </c>
-      <c r="I6">
-        <v>-0.1294042645788563</v>
-      </c>
-      <c r="J6">
-        <v>0.4831489612574651</v>
-      </c>
-      <c r="K6">
-        <v>-0.4244694600698171</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2879450106263302</v>
+        <v>-1.454049169846527</v>
       </c>
       <c r="C7">
-        <v>0.1778781143000042</v>
+        <v>1.304842033390642</v>
       </c>
       <c r="D7">
-        <v>-0.142720298275052</v>
+        <v>-0.1740116887969869</v>
       </c>
       <c r="E7">
-        <v>0.1551252688910708</v>
+        <v>0.9196119671508182</v>
       </c>
       <c r="F7">
-        <v>-0.6868748567608839</v>
+        <v>-0.6289748716682879</v>
       </c>
       <c r="G7">
-        <v>-0.119787681473019</v>
+        <v>0.6743117583272802</v>
       </c>
       <c r="H7">
-        <v>0.4988873177603203</v>
+        <v>-0.1545832836341255</v>
       </c>
       <c r="I7">
-        <v>-0.4117088339860341</v>
+        <v>0.550331405091856</v>
       </c>
       <c r="J7">
-        <v>0.2943033781772607</v>
+        <v>-0.06644183368791942</v>
       </c>
       <c r="K7">
-        <v>0.2908920762476144</v>
+        <v>0.3876689349527519</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.168312869047781</v>
+        <v>0.7117738499806919</v>
       </c>
       <c r="C8">
-        <v>0.1657324139451984</v>
+        <v>0.2446009757124641</v>
       </c>
       <c r="D8">
-        <v>-0.6964077009507706</v>
+        <v>-0.2384723623885485</v>
       </c>
       <c r="E8">
-        <v>-0.1185321379032588</v>
+        <v>0.3467749451832298</v>
       </c>
       <c r="F8">
-        <v>0.4944246148700076</v>
+        <v>0.002783548506317715</v>
       </c>
       <c r="G8">
-        <v>-0.4131651894052036</v>
+        <v>0.3772827335028751</v>
       </c>
       <c r="H8">
-        <v>0.2912808987430462</v>
+        <v>-0.01188482685516053</v>
       </c>
       <c r="I8">
-        <v>0.2886763822524853</v>
+        <v>0.2838672235880479</v>
       </c>
       <c r="J8">
-        <v>-0.2097978924824339</v>
+        <v>-0.414639109011977</v>
       </c>
       <c r="K8">
-        <v>-0.1106916620974746</v>
+        <v>0.08492650851422405</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.8394931903746196</v>
+        <v>0.06052221465165414</v>
       </c>
       <c r="C9">
-        <v>-0.04010054102734713</v>
+        <v>0.1262750469257271</v>
       </c>
       <c r="D9">
-        <v>0.4452079229676786</v>
+        <v>0.08610423631061166</v>
       </c>
       <c r="E9">
-        <v>-0.3890379607204555</v>
+        <v>0.3225951906312998</v>
       </c>
       <c r="F9">
-        <v>0.2732842573276001</v>
+        <v>-0.01745723964523288</v>
       </c>
       <c r="G9">
-        <v>0.294872182919561</v>
+        <v>0.2668931424059421</v>
       </c>
       <c r="H9">
-        <v>-0.21749670306024</v>
+        <v>-0.4324806458979892</v>
       </c>
       <c r="I9">
-        <v>-0.1104099171948289</v>
+        <v>0.07014957813415834</v>
       </c>
       <c r="J9">
-        <v>-0.1144703084337619</v>
+        <v>0.2678998877541106</v>
       </c>
       <c r="K9">
-        <v>0.1878561024944725</v>
+        <v>-0.2308102898139184</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.0279808084442843</v>
+        <v>0.2192916909749139</v>
       </c>
       <c r="C10">
-        <v>-0.134186217321377</v>
+        <v>0.2309322351121842</v>
       </c>
       <c r="D10">
-        <v>0.1280251461610875</v>
+        <v>0.06236193884723058</v>
       </c>
       <c r="E10">
-        <v>0.3859129906300438</v>
+        <v>0.2257464499763</v>
       </c>
       <c r="F10">
-        <v>-0.2658616971774138</v>
+        <v>-0.3937541439659204</v>
       </c>
       <c r="G10">
-        <v>-0.07654818492857021</v>
+        <v>0.05882896629300421</v>
       </c>
       <c r="H10">
-        <v>-0.1291049390893971</v>
+        <v>0.2867572316744673</v>
       </c>
       <c r="I10">
-        <v>0.2018221525728795</v>
+        <v>-0.2296921338986302</v>
       </c>
       <c r="J10">
-        <v>-0.01637693112903568</v>
+        <v>0.1799962923377751</v>
       </c>
       <c r="K10">
-        <v>-0.4056676591084612</v>
+        <v>-0.7257100406063964</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5505009309989176</v>
+        <v>0.2329052055690305</v>
       </c>
       <c r="C11">
-        <v>0.1018423460981529</v>
+        <v>0.1222662573310985</v>
       </c>
       <c r="D11">
-        <v>-0.1328239241981798</v>
+        <v>-0.3267165002800898</v>
       </c>
       <c r="E11">
-        <v>-0.1897051359461788</v>
+        <v>0.020821015457967</v>
       </c>
       <c r="F11">
-        <v>-0.09694799622084638</v>
+        <v>0.3133572492531848</v>
       </c>
       <c r="G11">
-        <v>0.1482086862398747</v>
+        <v>-0.2428025899019631</v>
       </c>
       <c r="H11">
-        <v>-0.01936481288576621</v>
+        <v>0.1912802670500428</v>
       </c>
       <c r="I11">
-        <v>-0.4385372117501379</v>
+        <v>-0.7294042645788564</v>
       </c>
       <c r="J11">
-        <v>0.372798605199044</v>
+        <v>-0.1168510387425349</v>
       </c>
       <c r="K11">
-        <v>-0.233903777054444</v>
+        <v>0.475530539930183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07603278190503292</v>
+        <v>-0.2120549893736698</v>
       </c>
       <c r="C12">
-        <v>-0.2286102748726316</v>
+        <v>-0.02212188569999579</v>
       </c>
       <c r="D12">
-        <v>-0.07815719867499328</v>
+        <v>0.3572797017249479</v>
       </c>
       <c r="E12">
-        <v>0.1322223647129119</v>
+        <v>-0.2448747311089292</v>
       </c>
       <c r="F12">
-        <v>-0.01439339883612244</v>
+        <v>0.2131251432391162</v>
       </c>
       <c r="G12">
-        <v>-0.4461928054113105</v>
+        <v>-0.7197876814730191</v>
       </c>
       <c r="H12">
-        <v>0.3727491580925119</v>
+        <v>-0.1011126822396797</v>
       </c>
       <c r="I12">
-        <v>-0.2385340078537386</v>
+        <v>0.4882911660139659</v>
       </c>
       <c r="J12">
-        <v>-0.4318129604953201</v>
+        <v>-0.4056966218227393</v>
       </c>
       <c r="K12">
-        <v>-0.03581648909795633</v>
+        <v>0.2908920762476144</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.2739337649521302</v>
+        <v>0.331687130952219</v>
       </c>
       <c r="C13">
-        <v>0.2478720344830213</v>
+        <v>-0.2342675860548016</v>
       </c>
       <c r="D13">
-        <v>-0.08383666730701084</v>
+        <v>0.2035922990492294</v>
       </c>
       <c r="E13">
-        <v>-0.405628221849395</v>
+        <v>-0.7185321379032589</v>
       </c>
       <c r="F13">
-        <v>0.3479317097958357</v>
+        <v>-0.1055753851299924</v>
       </c>
       <c r="G13">
-        <v>-0.2244922408930955</v>
+        <v>0.4868348105947964</v>
       </c>
       <c r="H13">
-        <v>-0.4408668613996343</v>
+        <v>-0.4087191012569538</v>
       </c>
       <c r="I13">
-        <v>-0.03114363405446358</v>
+        <v>0.2886763822524853</v>
       </c>
       <c r="J13">
-        <v>0.06308272679657889</v>
+        <v>0.290202107517566</v>
       </c>
       <c r="K13">
-        <v>-0.4334888941437737</v>
+        <v>-0.2106916620974747</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1068835430532797</v>
+        <v>0.06050680962538052</v>
       </c>
       <c r="C14">
-        <v>-0.384720152704799</v>
+        <v>-0.6401005410273471</v>
       </c>
       <c r="D14">
-        <v>0.3433876597821849</v>
+        <v>-0.1547920770323213</v>
       </c>
       <c r="E14">
-        <v>-0.2143048467096339</v>
+        <v>0.5109620392795445</v>
       </c>
       <c r="F14">
-        <v>-0.4392021825428093</v>
+        <v>-0.4267157426723999</v>
       </c>
       <c r="G14">
-        <v>-0.02455046767847792</v>
+        <v>0.294872182919561</v>
       </c>
       <c r="H14">
-        <v>0.06682721425889945</v>
+        <v>0.28250329693976</v>
       </c>
       <c r="I14">
-        <v>-0.4280986787535278</v>
+        <v>-0.2104099171948289</v>
       </c>
       <c r="J14">
-        <v>-0.7310847158649334</v>
+        <v>-0.1144703084337619</v>
       </c>
       <c r="K14">
-        <v>0.5706725229265484</v>
+        <v>-0.1121438975055275</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3432789624028624</v>
+        <v>-0.5720191915557157</v>
       </c>
       <c r="C15">
-        <v>-0.2252730479242543</v>
+        <v>0.765813782678623</v>
       </c>
       <c r="D15">
-        <v>-0.4433036489553422</v>
+        <v>-0.5719748538389126</v>
       </c>
       <c r="E15">
-        <v>-0.03295408223801938</v>
+        <v>0.3859129906300438</v>
       </c>
       <c r="F15">
-        <v>0.06110503982978654</v>
+        <v>0.2341383028225862</v>
       </c>
       <c r="G15">
-        <v>-0.4354847618259405</v>
+        <v>-0.1765481849285702</v>
       </c>
       <c r="H15">
-        <v>-0.7374422929132043</v>
+        <v>-0.1291049390893971</v>
       </c>
       <c r="I15">
-        <v>0.5636813742686262</v>
+        <v>-0.09817784742712052</v>
       </c>
       <c r="J15">
-        <v>0.5630363638553576</v>
+        <v>0.1836230688709643</v>
       </c>
       <c r="K15">
-        <v>-0.3365933855580339</v>
+        <v>-0.00566765910846115</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.2148861085577528</v>
+        <v>-0.1494990690010824</v>
       </c>
       <c r="C16">
-        <v>-0.1479058661610976</v>
+        <v>0.1018423460981529</v>
       </c>
       <c r="D16">
-        <v>0.1397887098069372</v>
+        <v>0.3671760758018202</v>
       </c>
       <c r="E16">
-        <v>-0.4659524948466186</v>
+        <v>-0.2897051359461788</v>
       </c>
       <c r="F16">
-        <v>-0.7063823969388959</v>
+        <v>-0.09694799622084638</v>
       </c>
       <c r="G16">
-        <v>0.5600583725195012</v>
+        <v>-0.1517913137601253</v>
       </c>
       <c r="H16">
-        <v>0.5789641985972922</v>
+        <v>0.1806351871142338</v>
       </c>
       <c r="I16">
-        <v>-0.3316865300782133</v>
+        <v>-0.03853721175013792</v>
       </c>
       <c r="J16">
-        <v>0.674313632032851</v>
+        <v>-0.427201394800956</v>
       </c>
       <c r="K16">
-        <v>-0.6290666010437573</v>
+        <v>0.366096222945556</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.2007742000929676</v>
+        <v>0.4239672180949671</v>
       </c>
       <c r="C17">
-        <v>-0.2867277067645233</v>
+        <v>-0.3286102748726316</v>
       </c>
       <c r="D17">
-        <v>-0.8032558974075208</v>
+        <v>-0.07815719867499328</v>
       </c>
       <c r="E17">
-        <v>0.6076837561280478</v>
+        <v>-0.1677776352870881</v>
       </c>
       <c r="F17">
-        <v>0.5510548222952787</v>
+        <v>0.1856066011638776</v>
       </c>
       <c r="G17">
-        <v>-0.3200589840883943</v>
+        <v>-0.04619280541131047</v>
       </c>
       <c r="H17">
-        <v>0.6652081679528105</v>
+        <v>-0.4272508419074882</v>
       </c>
       <c r="I17">
-        <v>-0.6272778042838831</v>
+        <v>0.3614659921462614</v>
       </c>
       <c r="J17">
-        <v>-0.3311100819951341</v>
+        <v>-0.23181296049532</v>
       </c>
       <c r="K17">
-        <v>-0.3291555589435655</v>
+        <v>-0.4358164890979563</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.4658930160006631</v>
+        <v>-0.2739337649521302</v>
       </c>
       <c r="C18">
-        <v>-0.7133510622843573</v>
+        <v>-0.05212796551697873</v>
       </c>
       <c r="D18">
-        <v>0.5582359526407188</v>
+        <v>0.1161633326929892</v>
       </c>
       <c r="E18">
-        <v>0.5728535393575385</v>
+        <v>-0.005628221849394955</v>
       </c>
       <c r="F18">
-        <v>-0.3346056855627243</v>
+        <v>-0.4520682902041643</v>
       </c>
       <c r="G18">
-        <v>0.6691954456419811</v>
+        <v>0.3755077591069045</v>
       </c>
       <c r="H18">
-        <v>-0.6327411108224426</v>
+        <v>-0.2408668613996343</v>
       </c>
       <c r="I18">
-        <v>-0.3317545357715714</v>
+        <v>-0.4311436340544636</v>
       </c>
       <c r="J18">
-        <v>-0.3322571411601675</v>
+        <v>-0.03691727320342111</v>
       </c>
       <c r="K18">
-        <v>0.4120560305663448</v>
+        <v>0.06651110585622637</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.7080669566657783</v>
+        <v>0.09311645694672031</v>
       </c>
       <c r="C19">
-        <v>0.5346215957326687</v>
+        <v>0.01527984729520105</v>
       </c>
       <c r="D19">
-        <v>0.5660786297614319</v>
+        <v>-0.4566123402178152</v>
       </c>
       <c r="E19">
-        <v>-0.350869156136651</v>
+        <v>0.3856951532903661</v>
       </c>
       <c r="F19">
-        <v>0.6582346866733105</v>
+        <v>-0.2392021825428093</v>
       </c>
       <c r="G19">
-        <v>-0.646653301496338</v>
+        <v>-0.4245504676784779</v>
       </c>
       <c r="H19">
-        <v>-0.3440290691351285</v>
+        <v>-0.03317278574110055</v>
       </c>
       <c r="I19">
-        <v>-0.3454379331200693</v>
+        <v>0.07190132124647228</v>
       </c>
       <c r="J19">
-        <v>0.3993755604725862</v>
+        <v>-0.4310847158649335</v>
       </c>
       <c r="K19">
-        <v>0.6805068886614397</v>
+        <v>-0.7293274770734515</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2903884450430213</v>
+        <v>-0.4567210375971377</v>
       </c>
       <c r="C20">
-        <v>0.7097890346793292</v>
+        <v>0.3747269520757457</v>
       </c>
       <c r="D20">
-        <v>-0.4195034471793016</v>
+        <v>-0.2433036489553422</v>
       </c>
       <c r="E20">
-        <v>0.7044428197282627</v>
+        <v>-0.4329540822380194</v>
       </c>
       <c r="F20">
-        <v>-0.6624416745351365</v>
+        <v>-0.03889496017021347</v>
       </c>
       <c r="G20">
-        <v>-0.3263587541052386</v>
+        <v>0.06451523817405955</v>
       </c>
       <c r="H20">
-        <v>-0.3458240075971326</v>
+        <v>-0.4374422929132044</v>
       </c>
       <c r="I20">
-        <v>0.4087337529742918</v>
+        <v>-0.7363186257313737</v>
       </c>
       <c r="J20">
-        <v>0.6846065294802819</v>
+        <v>0.5630363638553576</v>
       </c>
       <c r="K20">
-        <v>0.4913338777715071</v>
+        <v>0.5634066144419662</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.114405471535011</v>
+        <v>-0.0148861085577528</v>
       </c>
       <c r="C21">
-        <v>-0.083519219866623</v>
+        <v>-0.5479058661610976</v>
       </c>
       <c r="D21">
-        <v>0.5354002829794555</v>
+        <v>0.03978870980693717</v>
       </c>
       <c r="E21">
-        <v>-0.5600342421207036</v>
+        <v>0.03404750515338141</v>
       </c>
       <c r="F21">
-        <v>-0.3696819333223905</v>
+        <v>-0.406382396938896</v>
       </c>
       <c r="G21">
-        <v>-0.3109223468240641</v>
+        <v>-0.7399416274804987</v>
       </c>
       <c r="H21">
-        <v>0.4016467057022085</v>
+        <v>0.5789641985972922</v>
       </c>
       <c r="I21">
-        <v>0.7000578584313288</v>
+        <v>0.5683134699217867</v>
       </c>
       <c r="J21">
-        <v>0.4946871344982792</v>
+        <v>-0.3256863679671489</v>
       </c>
       <c r="K21">
-        <v>0.1253453143853887</v>
+        <v>0.6709333989562426</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01417524865474379</v>
+        <v>-0.3007742000929676</v>
       </c>
       <c r="C22">
-        <v>0.5420929106245922</v>
+        <v>0.2132722932354767</v>
       </c>
       <c r="D22">
-        <v>-0.5233659264891628</v>
+        <v>-0.5032558974075209</v>
       </c>
       <c r="E22">
-        <v>-0.3390259997335363</v>
+        <v>-0.6923162438719521</v>
       </c>
       <c r="F22">
-        <v>-0.2820743490986328</v>
+        <v>0.5510548222952787</v>
       </c>
       <c r="G22">
-        <v>0.4339477230372309</v>
+        <v>0.5799410159116057</v>
       </c>
       <c r="H22">
-        <v>0.7292848598315985</v>
+        <v>-0.3347918320471895</v>
       </c>
       <c r="I22">
-        <v>0.5261638118306764</v>
+        <v>0.6727221957161168</v>
       </c>
       <c r="J22">
-        <v>0.1553199265687449</v>
+        <v>-0.6311100819951341</v>
       </c>
       <c r="K22">
-        <v>2.166926221925169</v>
+        <v>-0.3291555589435655</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.8638480677265885</v>
+        <v>0.03410698399933688</v>
       </c>
       <c r="C23">
-        <v>-0.7243306925015239</v>
+        <v>-0.4133510622843574</v>
       </c>
       <c r="D23">
-        <v>-0.289193707480482</v>
+        <v>-0.7417640473592811</v>
       </c>
       <c r="E23">
-        <v>-0.3501428451814179</v>
+        <v>0.5728535393575385</v>
       </c>
       <c r="F23">
-        <v>0.4215819581336694</v>
+        <v>0.5653943144372757</v>
       </c>
       <c r="G23">
-        <v>0.6905733849747189</v>
+        <v>-0.3308045543580189</v>
       </c>
       <c r="H23">
-        <v>0.4999349668319114</v>
+        <v>0.6672588891775574</v>
       </c>
       <c r="I23">
-        <v>0.1231670462376172</v>
+        <v>-0.6317545357715714</v>
       </c>
       <c r="J23">
-        <v>2.137589427391997</v>
+        <v>-0.3322571411601675</v>
       </c>
       <c r="K23">
-        <v>0.008554865393815871</v>
+        <v>-0.3320010918266424</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.8264082121192822</v>
+        <v>-0.4080669566657784</v>
       </c>
       <c r="C24">
-        <v>-0.2508850810170359</v>
+        <v>-0.7653784042673313</v>
       </c>
       <c r="D24">
-        <v>-0.3884273005650942</v>
+        <v>0.5660786297614319</v>
       </c>
       <c r="E24">
-        <v>0.4248428544183068</v>
+        <v>0.5491308438633489</v>
       </c>
       <c r="F24">
-        <v>0.6715991720790697</v>
+        <v>-0.3417653133266894</v>
       </c>
       <c r="G24">
-        <v>0.4927530885472903</v>
+        <v>0.6533466985036619</v>
       </c>
       <c r="H24">
-        <v>0.1097787292668877</v>
+        <v>-0.6440290691351285</v>
       </c>
       <c r="I24">
-        <v>2.127447317938199</v>
+        <v>-0.3454379331200693</v>
       </c>
       <c r="J24">
-        <v>-0.003276326107601132</v>
+        <v>-0.3446815619204011</v>
       </c>
       <c r="K24">
-        <v>-0.3089276974374213</v>
+        <v>0.3989694906075438</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.06463209023894709</v>
+        <v>-1.009611554956979</v>
       </c>
       <c r="C25">
-        <v>-0.521559506567266</v>
+        <v>0.7097890346793292</v>
       </c>
       <c r="D25">
-        <v>0.4895236104639617</v>
+        <v>0.4804965528206984</v>
       </c>
       <c r="E25">
-        <v>0.6229407706366878</v>
+        <v>-0.2955571802717373</v>
       </c>
       <c r="F25">
-        <v>0.5099742948089054</v>
+        <v>0.6375583254648635</v>
       </c>
       <c r="G25">
-        <v>0.08906193997041144</v>
+        <v>-0.6263587541052386</v>
       </c>
       <c r="H25">
-        <v>2.128533680929012</v>
+        <v>-0.3458240075971326</v>
       </c>
       <c r="I25">
-        <v>-0.01467854270729655</v>
+        <v>-0.3353233694186954</v>
       </c>
       <c r="J25">
-        <v>-0.3131939433936758</v>
+        <v>0.4030691314263861</v>
       </c>
       <c r="K25">
-        <v>-0.08879790443027424</v>
+        <v>0.6876623373176759</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.6520698539071683</v>
+        <v>0.114405471535011</v>
       </c>
       <c r="C26">
-        <v>0.5713814409490373</v>
+        <v>0.816480780133377</v>
       </c>
       <c r="D26">
-        <v>0.5997976031114685</v>
+        <v>-0.4645997170205444</v>
       </c>
       <c r="E26">
-        <v>0.5357284468000743</v>
+        <v>0.7399657578792963</v>
       </c>
       <c r="F26">
-        <v>0.09227690411854578</v>
+        <v>-0.6696819333223905</v>
       </c>
       <c r="G26">
-        <v>2.141784679481501</v>
+        <v>-0.3109223468240641</v>
       </c>
       <c r="H26">
-        <v>-0.005698896320427103</v>
+        <v>-0.3424104166907787</v>
       </c>
       <c r="I26">
-        <v>-0.3025303771938458</v>
+        <v>0.418520460377433</v>
       </c>
       <c r="J26">
-        <v>-0.07870626709253685</v>
+        <v>0.691015594044448</v>
       </c>
       <c r="K26">
-        <v>0.007603447643190639</v>
+        <v>0.4995326796185425</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.28611027902032</v>
+        <v>0.9141752486547438</v>
       </c>
       <c r="C27">
-        <v>0.7471796369522978</v>
+        <v>-0.4579070893754077</v>
       </c>
       <c r="D27">
-        <v>0.471097866583177</v>
+        <v>0.776634073510837</v>
       </c>
       <c r="E27">
-        <v>0.1318501855829672</v>
+        <v>-0.6390259997335362</v>
       </c>
       <c r="F27">
-        <v>2.129772727784024</v>
+        <v>-0.2820743490986328</v>
       </c>
       <c r="G27">
-        <v>0.00799358042629307</v>
+        <v>-0.3101093993557563</v>
       </c>
       <c r="H27">
-        <v>-0.301723509800176</v>
+        <v>0.4477474617777026</v>
       </c>
       <c r="I27">
-        <v>-0.07140411945208981</v>
+        <v>0.7224922713768452</v>
       </c>
       <c r="J27">
-        <v>0.0116151464603234</v>
+        <v>0.5295072918018988</v>
       </c>
       <c r="K27">
-        <v>0.4816546107097487</v>
+        <v>0.1536741838331279</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.8608743148745941</v>
+        <v>-0.1361519322734115</v>
       </c>
       <c r="C28">
-        <v>0.4107148159707749</v>
+        <v>0.575669307498476</v>
       </c>
       <c r="D28">
-        <v>0.1567737762602209</v>
+        <v>-0.5891937074804819</v>
       </c>
       <c r="E28">
-        <v>2.113797076144924</v>
+        <v>-0.3501428451814179</v>
       </c>
       <c r="F28">
-        <v>0.01164190153124833</v>
+        <v>-0.3224751642593178</v>
       </c>
       <c r="G28">
-        <v>-0.3074678797019153</v>
+        <v>0.409035986920823</v>
       </c>
       <c r="H28">
-        <v>-0.0726605040737531</v>
+        <v>0.6962634263780803</v>
       </c>
       <c r="I28">
-        <v>0.008217790314260197</v>
+        <v>0.497354411470771</v>
       </c>
       <c r="J28">
-        <v>0.4792771179961435</v>
+        <v>0.1243373892999552</v>
       </c>
       <c r="K28">
-        <v>0.1445804400881856</v>
+        <v>2.137058649517275</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.3497760694427562</v>
+        <v>0.4735917878807178</v>
       </c>
       <c r="C29">
-        <v>0.008271803882799106</v>
+        <v>-0.5508850810170358</v>
       </c>
       <c r="D29">
-        <v>2.073149589886984</v>
+        <v>-0.3884273005650942</v>
       </c>
       <c r="E29">
-        <v>-0.06154569567438904</v>
+        <v>-0.3192142679746804</v>
       </c>
       <c r="F29">
-        <v>-0.3616981402823287</v>
+        <v>0.3900617740251738</v>
       </c>
       <c r="G29">
-        <v>-0.1345633954494031</v>
+        <v>0.6890815480934592</v>
       </c>
       <c r="H29">
-        <v>-0.04992388552070812</v>
+        <v>0.4839660945000416</v>
       </c>
       <c r="I29">
-        <v>0.4194700014628313</v>
+        <v>0.1141952798461572</v>
       </c>
       <c r="J29">
-        <v>0.08555312083775651</v>
+        <v>2.125227458015858</v>
       </c>
       <c r="K29">
-        <v>-0.08107550272436534</v>
+        <v>-0.002160573217156125</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.2742649466732034</v>
+        <v>-0.364632090238947</v>
       </c>
       <c r="C30">
-        <v>2.049200279375919</v>
+        <v>-0.521559506567266</v>
       </c>
       <c r="D30">
-        <v>0.01068849708086921</v>
+        <v>-0.2545335119290255</v>
       </c>
       <c r="E30">
-        <v>-0.3303211256149685</v>
+        <v>0.3414033725827919</v>
       </c>
       <c r="F30">
-        <v>-0.08823897953116874</v>
+        <v>0.7063027543550743</v>
       </c>
       <c r="G30">
-        <v>-0.00963352430345854</v>
+        <v>0.4632493052035653</v>
       </c>
       <c r="H30">
-        <v>0.4620577662242013</v>
+        <v>0.1152816428369704</v>
       </c>
       <c r="I30">
-        <v>0.1272301462652262</v>
+        <v>2.113825241416162</v>
       </c>
       <c r="J30">
-        <v>-0.03904511370095048</v>
+        <v>-0.006426819173410675</v>
       </c>
       <c r="K30">
-        <v>-0.08314295059893091</v>
+        <v>-0.317823204948507</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1.950309979567804</v>
+        <v>-0.6520698539071683</v>
       </c>
       <c r="C31">
-        <v>0.1132664947122722</v>
+        <v>-0.1726756814439499</v>
       </c>
       <c r="D31">
-        <v>-0.2780902111575203</v>
+        <v>0.3182602050575726</v>
       </c>
       <c r="E31">
-        <v>-0.07209279976597981</v>
+        <v>0.7320569063462431</v>
       </c>
       <c r="F31">
-        <v>0.03377528300153273</v>
+        <v>0.4664642693516996</v>
       </c>
       <c r="G31">
-        <v>0.5002715839462306</v>
+        <v>0.1285326413894594</v>
       </c>
       <c r="H31">
-        <v>0.1633688861124733</v>
+        <v>2.122804887803032</v>
       </c>
       <c r="I31">
-        <v>-0.001691398776348248</v>
+        <v>0.004236747026419366</v>
       </c>
       <c r="J31">
-        <v>-0.04568495174066966</v>
+        <v>-0.3077315676107696</v>
       </c>
       <c r="K31">
-        <v>0.01645514073175594</v>
+        <v>-0.07598350915077963</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.4760504734034924</v>
+        <v>-0.4579468433726672</v>
       </c>
       <c r="C32">
-        <v>0.361840107985436</v>
+        <v>0.465642238898402</v>
       </c>
       <c r="D32">
-        <v>-0.4172985000989091</v>
+        <v>0.6674263261293458</v>
       </c>
       <c r="E32">
-        <v>-0.1554491050792698</v>
+        <v>0.506037550816121</v>
       </c>
       <c r="F32">
-        <v>0.64207262268475</v>
+        <v>0.1165206896919824</v>
       </c>
       <c r="G32">
-        <v>0.1611933885905487</v>
+        <v>2.136497364549752</v>
       </c>
       <c r="H32">
-        <v>-0.08993328161446913</v>
+        <v>0.005043614420089125</v>
       </c>
       <c r="I32">
-        <v>-0.05888275865455335</v>
+        <v>-0.3004294199703225</v>
       </c>
       <c r="J32">
-        <v>0.01615264814155834</v>
+        <v>-0.07197181033364687</v>
       </c>
       <c r="K32">
-        <v>-0.04787573068872124</v>
+        <v>0.01186418089605213</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.2508928775721025</v>
+        <v>0.5793369168206982</v>
       </c>
       <c r="C33">
-        <v>-0.04935376932711956</v>
+        <v>0.6070432755169437</v>
       </c>
       <c r="D33">
-        <v>0.02681374680356486</v>
+        <v>0.5309611414933748</v>
       </c>
       <c r="E33">
-        <v>0.5050303595152613</v>
+        <v>0.1005450380528822</v>
       </c>
       <c r="F33">
-        <v>0.1708238928247663</v>
+        <v>2.140145685654708</v>
       </c>
       <c r="G33">
-        <v>0.00223125340812428</v>
+        <v>-0.0007007554816501615</v>
       </c>
       <c r="H33">
-        <v>-0.04126998915040264</v>
+        <v>-0.3016858045919858</v>
       </c>
       <c r="I33">
-        <v>0.02151740444740648</v>
+        <v>-0.07536916647971006</v>
       </c>
       <c r="J33">
-        <v>-0.0119198390415904</v>
+        <v>0.009486688182446919</v>
       </c>
       <c r="K33">
-        <v>-0.005828658436992979</v>
+        <v>0.4786826912366427</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.1664298907891865</v>
+        <v>0.546104528988925</v>
       </c>
       <c r="C34">
-        <v>-0.04869585134476913</v>
+        <v>0.382459169115953</v>
       </c>
       <c r="D34">
-        <v>0.5433751427531116</v>
+        <v>0.05989755179494234</v>
       </c>
       <c r="E34">
-        <v>0.1705265757161817</v>
+        <v>2.06695808844907</v>
       </c>
       <c r="F34">
-        <v>-0.02749177067537531</v>
+        <v>-0.05493101606206351</v>
       </c>
       <c r="G34">
-        <v>-0.05166729790508037</v>
+        <v>-0.3635886959676358</v>
       </c>
       <c r="H34">
-        <v>0.01661308193903023</v>
+        <v>-0.1335108423146784</v>
       </c>
       <c r="I34">
-        <v>-0.02445188571078919</v>
+        <v>-0.05032042835086536</v>
       </c>
       <c r="J34">
-        <v>-0.01848215362332346</v>
+        <v>0.4196553719862136</v>
       </c>
       <c r="K34">
-        <v>-0.07079361909546847</v>
+        <v>0.0854765613451095</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.3597807503635829</v>
+        <v>0.6484523119063572</v>
       </c>
       <c r="C35">
-        <v>0.5877681652748142</v>
+        <v>0.03594824128387722</v>
       </c>
       <c r="D35">
-        <v>0.2750279680936576</v>
+        <v>2.139192281204328</v>
       </c>
       <c r="E35">
-        <v>-0.04791417865892819</v>
+        <v>-0.02355400139470334</v>
       </c>
       <c r="F35">
-        <v>-0.05976045638096966</v>
+        <v>-0.3172642800494014</v>
       </c>
       <c r="G35">
-        <v>0.04409645269453516</v>
+        <v>-0.09322048109742881</v>
       </c>
       <c r="H35">
-        <v>-0.009609457809363826</v>
+        <v>-0.007732663589495328</v>
       </c>
       <c r="I35">
-        <v>-0.01148686710468855</v>
+        <v>0.4613323974136833</v>
       </c>
       <c r="J35">
-        <v>-0.0579425229838813</v>
-      </c>
-      <c r="K35">
-        <v>-0.05648460427876935</v>
+        <v>0.1275069503685244</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.4493330185371963</v>
+        <v>-0.06294205852423779</v>
       </c>
       <c r="C36">
-        <v>0.1708406735326888</v>
+        <v>2.241770278835731</v>
       </c>
       <c r="D36">
-        <v>-0.005422791866464079</v>
+        <v>0.02867691306274487</v>
       </c>
       <c r="E36">
-        <v>-0.06539479260213728</v>
+        <v>-0.3011181002842125</v>
       </c>
       <c r="F36">
-        <v>0.005090782467250286</v>
+        <v>-0.04981167379243754</v>
       </c>
       <c r="G36">
-        <v>-0.02513230454157445</v>
+        <v>0.03048115413253404</v>
       </c>
       <c r="H36">
-        <v>-0.02264073479046643</v>
+        <v>0.4974711372609304</v>
       </c>
       <c r="I36">
-        <v>-0.07749391263213909</v>
-      </c>
-      <c r="J36">
-        <v>-0.07524682804971911</v>
-      </c>
-      <c r="K36">
-        <v>-0.4993176607488151</v>
+        <v>0.1648606652931266</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.3237572684721769</v>
+        <v>2.604554257526952</v>
       </c>
       <c r="C37">
-        <v>0.09851611570591239</v>
+        <v>0.6686072322057012</v>
       </c>
       <c r="D37">
-        <v>-0.1617696342879523</v>
+        <v>-0.6463238006171418</v>
       </c>
       <c r="E37">
-        <v>-0.01038665294713449</v>
+        <v>-0.2390360618732401</v>
       </c>
       <c r="F37">
-        <v>0.005576757930156087</v>
+        <v>0.1722821928710533</v>
       </c>
       <c r="G37">
-        <v>-0.03551272236262563</v>
+        <v>0.4952956397390058</v>
       </c>
       <c r="H37">
-        <v>-0.09313492070045082</v>
-      </c>
-      <c r="I37">
-        <v>-0.07440341878080675</v>
-      </c>
-      <c r="J37">
-        <v>-0.5026911841269848</v>
-      </c>
-      <c r="K37">
-        <v>-0.01005317307386651</v>
+        <v>0.07661878245500571</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05644442470388011</v>
+        <v>0.05587424664816265</v>
       </c>
       <c r="C38">
-        <v>0.02554406905147947</v>
+        <v>-0.2783790698453523</v>
       </c>
       <c r="D38">
-        <v>0.01570249145987312</v>
+        <v>-0.05677320999040541</v>
       </c>
       <c r="E38">
-        <v>-0.03802358313744111</v>
+        <v>0.03523992970156467</v>
       </c>
       <c r="F38">
-        <v>-0.002343283392694016</v>
+        <v>0.5049261439732234</v>
       </c>
       <c r="G38">
-        <v>-0.05904285340066874</v>
-      </c>
-      <c r="H38">
-        <v>-0.06717602134297956</v>
-      </c>
-      <c r="I38">
-        <v>-0.4876445978891031</v>
-      </c>
-      <c r="J38">
-        <v>0.01193847687603373</v>
-      </c>
-      <c r="K38">
-        <v>-0.06125595768424996</v>
+        <v>0.1687833174775991</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.06258861287178845</v>
+        <v>-0.3954551913074192</v>
       </c>
       <c r="C39">
-        <v>0.009326612534822337</v>
+        <v>-0.1322828081387394</v>
       </c>
       <c r="D39">
-        <v>-0.02033507208384229</v>
+        <v>0.07358471293941501</v>
       </c>
       <c r="E39">
-        <v>-0.01817317805109044</v>
+        <v>0.5046288268646388</v>
       </c>
       <c r="F39">
-        <v>-0.07323347728570212</v>
-      </c>
-      <c r="G39">
-        <v>-0.07088744816144578</v>
-      </c>
-      <c r="H39">
-        <v>-0.4948612901446716</v>
-      </c>
-      <c r="I39">
-        <v>0.002294864182307552</v>
-      </c>
-      <c r="J39">
-        <v>-0.06906746354454607</v>
+        <v>0.1390602933940995</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.1500529593267638</v>
+        <v>-0.4433677071575531</v>
       </c>
       <c r="C40">
-        <v>-0.003754188589898096</v>
+        <v>0.1179777354611176</v>
       </c>
       <c r="D40">
-        <v>0.02560489011034632</v>
+        <v>0.6091302192421147</v>
       </c>
       <c r="E40">
-        <v>-0.09518426247187908</v>
-      </c>
-      <c r="F40">
-        <v>-0.08446801047526807</v>
-      </c>
-      <c r="G40">
-        <v>-0.4887985035476189</v>
-      </c>
-      <c r="H40">
-        <v>0.0003692577650489109</v>
-      </c>
-      <c r="I40">
-        <v>-0.07541003034553589</v>
+        <v>0.1186378854105467</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.09935271978382244</v>
+        <v>-0.02045741127650033</v>
       </c>
       <c r="C41">
-        <v>-0.04610865354300479</v>
+        <v>0.5049429246811459</v>
       </c>
       <c r="D41">
-        <v>-0.1002609095359117</v>
-      </c>
-      <c r="E41">
-        <v>-0.05204930396077505</v>
-      </c>
-      <c r="F41">
-        <v>-0.4891137130391441</v>
-      </c>
-      <c r="G41">
-        <v>-0.002631663850757037</v>
-      </c>
-      <c r="H41">
-        <v>-0.06692295027603015</v>
+        <v>0.1611292722030108</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.001578648981956705</v>
+        <v>0.657859519620634</v>
       </c>
       <c r="C42">
-        <v>-0.08555277690262475</v>
-      </c>
-      <c r="D42">
-        <v>-0.07419436050613024</v>
-      </c>
-      <c r="E42">
-        <v>-0.4899267746210935</v>
-      </c>
-      <c r="F42">
-        <v>0.00195145029153785</v>
-      </c>
-      <c r="G42">
-        <v>-0.07071487870294063</v>
+        <v>0.2650681797753872</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.08576781653471441</v>
-      </c>
-      <c r="C43">
-        <v>-0.07617959856547851</v>
-      </c>
-      <c r="D43">
-        <v>-0.4911059148857197</v>
-      </c>
-      <c r="E43">
-        <v>0.001638041260326063</v>
-      </c>
-      <c r="F43">
-        <v>-0.07190427862634607</v>
+        <v>0.1101076393655947</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.2246333953485248</v>
-      </c>
-      <c r="C44">
-        <v>-0.4672458837230379</v>
-      </c>
-      <c r="D44">
-        <v>0.07197165846347087</v>
-      </c>
-      <c r="E44">
-        <v>-0.07584527497128354</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.7536610307181386</v>
-      </c>
-      <c r="C45">
-        <v>0.06605150356014075</v>
-      </c>
-      <c r="D45">
-        <v>0.04927257475788877</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.2232627506474126</v>
-      </c>
-      <c r="C46">
-        <v>-0.1276150314848035</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.2871152093399901</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-1.454049169846527</v>
+      </c>
+      <c r="C2">
+        <v>1.304842033390642</v>
+      </c>
+      <c r="D2">
+        <v>-0.1740116887969869</v>
+      </c>
+      <c r="E2">
+        <v>0.9196119671508182</v>
+      </c>
+      <c r="F2">
+        <v>-0.6289748716682879</v>
+      </c>
+      <c r="G2">
+        <v>0.6743117583272802</v>
+      </c>
+      <c r="H2">
+        <v>-0.1545832836341255</v>
+      </c>
+      <c r="I2">
+        <v>0.550331405091856</v>
+      </c>
+      <c r="J2">
+        <v>-0.06644183368791942</v>
+      </c>
+      <c r="K2">
+        <v>0.3876689349527519</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>0.7117738499806919</v>
+      </c>
+      <c r="C3">
+        <v>0.2446009757124641</v>
+      </c>
+      <c r="D3">
+        <v>-0.2384723623885485</v>
+      </c>
+      <c r="E3">
+        <v>0.3467749451832298</v>
+      </c>
+      <c r="F3">
+        <v>0.002783548506317715</v>
+      </c>
+      <c r="G3">
+        <v>0.3772827335028751</v>
+      </c>
+      <c r="H3">
+        <v>-0.01188482685516053</v>
+      </c>
+      <c r="I3">
+        <v>0.2838672235880479</v>
+      </c>
+      <c r="J3">
+        <v>-0.414639109011977</v>
+      </c>
+      <c r="K3">
+        <v>0.08492650851422405</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.06052221465165414</v>
+      </c>
+      <c r="C4">
+        <v>0.1262750469257271</v>
+      </c>
+      <c r="D4">
+        <v>0.08610423631061166</v>
+      </c>
+      <c r="E4">
+        <v>0.3225951906312998</v>
+      </c>
+      <c r="F4">
+        <v>-0.01745723964523288</v>
+      </c>
+      <c r="G4">
+        <v>0.2668931424059421</v>
+      </c>
+      <c r="H4">
+        <v>-0.4324806458979892</v>
+      </c>
+      <c r="I4">
+        <v>0.07014957813415834</v>
+      </c>
+      <c r="J4">
+        <v>0.2678998877541106</v>
+      </c>
+      <c r="K4">
+        <v>-0.2308102898139184</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0.2192916909749139</v>
+      </c>
+      <c r="C5">
+        <v>0.2309322351121842</v>
+      </c>
+      <c r="D5">
+        <v>0.06236193884723058</v>
+      </c>
+      <c r="E5">
+        <v>0.2257464499763</v>
+      </c>
+      <c r="F5">
+        <v>-0.3937541439659204</v>
+      </c>
+      <c r="G5">
+        <v>0.05882896629300421</v>
+      </c>
+      <c r="H5">
+        <v>0.2867572316744673</v>
+      </c>
+      <c r="I5">
+        <v>-0.2296921338986302</v>
+      </c>
+      <c r="J5">
+        <v>0.1799962923377751</v>
+      </c>
+      <c r="K5">
+        <v>-0.7257100406063964</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.2329052055690305</v>
+      </c>
+      <c r="C6">
+        <v>0.1222662573310985</v>
+      </c>
+      <c r="D6">
+        <v>-0.3267165002800898</v>
+      </c>
+      <c r="E6">
+        <v>0.020821015457967</v>
+      </c>
+      <c r="F6">
+        <v>0.3133572492531848</v>
+      </c>
+      <c r="G6">
+        <v>-0.2428025899019631</v>
+      </c>
+      <c r="H6">
+        <v>0.1912802670500428</v>
+      </c>
+      <c r="I6">
+        <v>-0.7294042645788564</v>
+      </c>
+      <c r="J6">
+        <v>-0.1168510387425349</v>
+      </c>
+      <c r="K6">
+        <v>0.475530539930183</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.454049169846527</v>
+        <v>-0.2120549893736698</v>
       </c>
       <c r="C7">
-        <v>1.304842033390642</v>
+        <v>-0.02212188569999579</v>
       </c>
       <c r="D7">
-        <v>-0.1740116887969869</v>
+        <v>0.3572797017249479</v>
       </c>
       <c r="E7">
-        <v>0.9196119671508182</v>
+        <v>-0.2448747311089292</v>
       </c>
       <c r="F7">
-        <v>-0.6289748716682879</v>
+        <v>0.2131251432391162</v>
       </c>
       <c r="G7">
-        <v>0.6743117583272802</v>
+        <v>-0.7197876814730191</v>
       </c>
       <c r="H7">
-        <v>-0.1545832836341255</v>
+        <v>-0.1011126822396797</v>
       </c>
       <c r="I7">
-        <v>0.550331405091856</v>
+        <v>0.4882911660139659</v>
       </c>
       <c r="J7">
-        <v>-0.06644183368791942</v>
+        <v>-0.4056966218227393</v>
       </c>
       <c r="K7">
-        <v>0.3876689349527519</v>
+        <v>0.2908920762476144</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.7117738499806919</v>
+        <v>0.331687130952219</v>
       </c>
       <c r="C8">
-        <v>0.2446009757124641</v>
+        <v>-0.2342675860548016</v>
       </c>
       <c r="D8">
-        <v>-0.2384723623885485</v>
+        <v>0.2035922990492294</v>
       </c>
       <c r="E8">
-        <v>0.3467749451832298</v>
+        <v>-0.7185321379032589</v>
       </c>
       <c r="F8">
-        <v>0.002783548506317715</v>
+        <v>-0.1055753851299924</v>
       </c>
       <c r="G8">
-        <v>0.3772827335028751</v>
+        <v>0.4868348105947964</v>
       </c>
       <c r="H8">
-        <v>-0.01188482685516053</v>
+        <v>-0.4087191012569538</v>
       </c>
       <c r="I8">
-        <v>0.2838672235880479</v>
+        <v>0.2886763822524853</v>
       </c>
       <c r="J8">
-        <v>-0.414639109011977</v>
+        <v>0.290202107517566</v>
       </c>
       <c r="K8">
-        <v>0.08492650851422405</v>
+        <v>-0.2106916620974747</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.06052221465165414</v>
+        <v>0.06050680962538052</v>
       </c>
       <c r="C9">
-        <v>0.1262750469257271</v>
+        <v>-0.6401005410273471</v>
       </c>
       <c r="D9">
-        <v>0.08610423631061166</v>
+        <v>-0.1547920770323213</v>
       </c>
       <c r="E9">
-        <v>0.3225951906312998</v>
+        <v>0.5109620392795445</v>
       </c>
       <c r="F9">
-        <v>-0.01745723964523288</v>
+        <v>-0.4267157426723999</v>
       </c>
       <c r="G9">
-        <v>0.2668931424059421</v>
+        <v>0.294872182919561</v>
       </c>
       <c r="H9">
-        <v>-0.4324806458979892</v>
+        <v>0.28250329693976</v>
       </c>
       <c r="I9">
-        <v>0.07014957813415834</v>
+        <v>-0.2104099171948289</v>
       </c>
       <c r="J9">
-        <v>0.2678998877541106</v>
+        <v>-0.1144703084337619</v>
       </c>
       <c r="K9">
-        <v>-0.2308102898139184</v>
+        <v>-0.1121438975055275</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2192916909749139</v>
+        <v>-0.5720191915557157</v>
       </c>
       <c r="C10">
-        <v>0.2309322351121842</v>
+        <v>0.765813782678623</v>
       </c>
       <c r="D10">
-        <v>0.06236193884723058</v>
+        <v>-0.5719748538389126</v>
       </c>
       <c r="E10">
-        <v>0.2257464499763</v>
+        <v>0.3859129906300438</v>
       </c>
       <c r="F10">
-        <v>-0.3937541439659204</v>
+        <v>0.2341383028225862</v>
       </c>
       <c r="G10">
-        <v>0.05882896629300421</v>
+        <v>-0.1765481849285702</v>
       </c>
       <c r="H10">
-        <v>0.2867572316744673</v>
+        <v>-0.1291049390893971</v>
       </c>
       <c r="I10">
-        <v>-0.2296921338986302</v>
+        <v>-0.09817784742712052</v>
       </c>
       <c r="J10">
-        <v>0.1799962923377751</v>
+        <v>0.1836230688709643</v>
       </c>
       <c r="K10">
-        <v>-0.7257100406063964</v>
+        <v>-0.00566765910846115</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2329052055690305</v>
+        <v>-0.1494990690010824</v>
       </c>
       <c r="C11">
-        <v>0.1222662573310985</v>
+        <v>0.1018423460981529</v>
       </c>
       <c r="D11">
-        <v>-0.3267165002800898</v>
+        <v>0.3671760758018202</v>
       </c>
       <c r="E11">
-        <v>0.020821015457967</v>
+        <v>-0.2897051359461788</v>
       </c>
       <c r="F11">
-        <v>0.3133572492531848</v>
+        <v>-0.09694799622084638</v>
       </c>
       <c r="G11">
-        <v>-0.2428025899019631</v>
+        <v>-0.1517913137601253</v>
       </c>
       <c r="H11">
-        <v>0.1912802670500428</v>
+        <v>0.1806351871142338</v>
       </c>
       <c r="I11">
-        <v>-0.7294042645788564</v>
+        <v>-0.03853721175013792</v>
       </c>
       <c r="J11">
-        <v>-0.1168510387425349</v>
+        <v>-0.427201394800956</v>
       </c>
       <c r="K11">
-        <v>0.475530539930183</v>
+        <v>0.366096222945556</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2120549893736698</v>
+        <v>0.4239672180949671</v>
       </c>
       <c r="C12">
-        <v>-0.02212188569999579</v>
+        <v>-0.3286102748726316</v>
       </c>
       <c r="D12">
-        <v>0.3572797017249479</v>
+        <v>-0.07815719867499328</v>
       </c>
       <c r="E12">
-        <v>-0.2448747311089292</v>
+        <v>-0.1677776352870881</v>
       </c>
       <c r="F12">
-        <v>0.2131251432391162</v>
+        <v>0.1856066011638776</v>
       </c>
       <c r="G12">
-        <v>-0.7197876814730191</v>
+        <v>-0.04619280541131047</v>
       </c>
       <c r="H12">
-        <v>-0.1011126822396797</v>
+        <v>-0.4272508419074882</v>
       </c>
       <c r="I12">
-        <v>0.4882911660139659</v>
+        <v>0.3614659921462614</v>
       </c>
       <c r="J12">
-        <v>-0.4056966218227393</v>
+        <v>-0.23181296049532</v>
       </c>
       <c r="K12">
-        <v>0.2908920762476144</v>
+        <v>-0.4358164890979563</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.331687130952219</v>
+        <v>-0.2739337649521302</v>
       </c>
       <c r="C13">
-        <v>-0.2342675860548016</v>
+        <v>-0.05212796551697873</v>
       </c>
       <c r="D13">
-        <v>0.2035922990492294</v>
+        <v>0.1161633326929892</v>
       </c>
       <c r="E13">
-        <v>-0.7185321379032589</v>
+        <v>-0.005628221849394955</v>
       </c>
       <c r="F13">
-        <v>-0.1055753851299924</v>
+        <v>-0.4520682902041643</v>
       </c>
       <c r="G13">
-        <v>0.4868348105947964</v>
+        <v>0.3755077591069045</v>
       </c>
       <c r="H13">
-        <v>-0.4087191012569538</v>
+        <v>-0.2408668613996343</v>
       </c>
       <c r="I13">
-        <v>0.2886763822524853</v>
+        <v>-0.4311436340544636</v>
       </c>
       <c r="J13">
-        <v>0.290202107517566</v>
+        <v>-0.03691727320342111</v>
       </c>
       <c r="K13">
-        <v>-0.2106916620974747</v>
+        <v>0.06651110585622637</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.06050680962538052</v>
+        <v>0.09311645694672031</v>
       </c>
       <c r="C14">
-        <v>-0.6401005410273471</v>
+        <v>0.01527984729520105</v>
       </c>
       <c r="D14">
-        <v>-0.1547920770323213</v>
+        <v>-0.4566123402178152</v>
       </c>
       <c r="E14">
-        <v>0.5109620392795445</v>
+        <v>0.3856951532903661</v>
       </c>
       <c r="F14">
-        <v>-0.4267157426723999</v>
+        <v>-0.2392021825428093</v>
       </c>
       <c r="G14">
-        <v>0.294872182919561</v>
+        <v>-0.4245504676784779</v>
       </c>
       <c r="H14">
-        <v>0.28250329693976</v>
+        <v>-0.03317278574110055</v>
       </c>
       <c r="I14">
-        <v>-0.2104099171948289</v>
+        <v>0.07190132124647228</v>
       </c>
       <c r="J14">
-        <v>-0.1144703084337619</v>
+        <v>-0.4310847158649335</v>
       </c>
       <c r="K14">
-        <v>-0.1121438975055275</v>
+        <v>-0.7293274770734515</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.5720191915557157</v>
+        <v>-0.4567210375971377</v>
       </c>
       <c r="C15">
-        <v>0.765813782678623</v>
+        <v>0.3747269520757457</v>
       </c>
       <c r="D15">
-        <v>-0.5719748538389126</v>
+        <v>-0.2433036489553422</v>
       </c>
       <c r="E15">
-        <v>0.3859129906300438</v>
+        <v>-0.4329540822380194</v>
       </c>
       <c r="F15">
-        <v>0.2341383028225862</v>
+        <v>-0.03889496017021347</v>
       </c>
       <c r="G15">
-        <v>-0.1765481849285702</v>
+        <v>0.06451523817405955</v>
       </c>
       <c r="H15">
-        <v>-0.1291049390893971</v>
+        <v>-0.4374422929132044</v>
       </c>
       <c r="I15">
-        <v>-0.09817784742712052</v>
+        <v>-0.7363186257313737</v>
       </c>
       <c r="J15">
-        <v>0.1836230688709643</v>
+        <v>0.5630363638553576</v>
       </c>
       <c r="K15">
-        <v>-0.00566765910846115</v>
+        <v>0.5634066144419662</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1494990690010824</v>
+        <v>-0.0148861085577528</v>
       </c>
       <c r="C16">
-        <v>0.1018423460981529</v>
+        <v>-0.5479058661610976</v>
       </c>
       <c r="D16">
-        <v>0.3671760758018202</v>
+        <v>0.03978870980693717</v>
       </c>
       <c r="E16">
-        <v>-0.2897051359461788</v>
+        <v>0.03404750515338141</v>
       </c>
       <c r="F16">
-        <v>-0.09694799622084638</v>
+        <v>-0.406382396938896</v>
       </c>
       <c r="G16">
-        <v>-0.1517913137601253</v>
+        <v>-0.7399416274804987</v>
       </c>
       <c r="H16">
-        <v>0.1806351871142338</v>
+        <v>0.5789641985972922</v>
       </c>
       <c r="I16">
-        <v>-0.03853721175013792</v>
+        <v>0.5683134699217867</v>
       </c>
       <c r="J16">
-        <v>-0.427201394800956</v>
+        <v>-0.3256863679671489</v>
       </c>
       <c r="K16">
-        <v>0.366096222945556</v>
+        <v>0.6709333989562426</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.4239672180949671</v>
+        <v>-0.3007742000929676</v>
       </c>
       <c r="C17">
-        <v>-0.3286102748726316</v>
+        <v>0.2132722932354767</v>
       </c>
       <c r="D17">
-        <v>-0.07815719867499328</v>
+        <v>-0.5032558974075209</v>
       </c>
       <c r="E17">
-        <v>-0.1677776352870881</v>
+        <v>-0.6923162438719521</v>
       </c>
       <c r="F17">
-        <v>0.1856066011638776</v>
+        <v>0.5510548222952787</v>
       </c>
       <c r="G17">
-        <v>-0.04619280541131047</v>
+        <v>0.5799410159116057</v>
       </c>
       <c r="H17">
-        <v>-0.4272508419074882</v>
+        <v>-0.3347918320471895</v>
       </c>
       <c r="I17">
-        <v>0.3614659921462614</v>
+        <v>0.6727221957161168</v>
       </c>
       <c r="J17">
-        <v>-0.23181296049532</v>
+        <v>-0.6311100819951341</v>
       </c>
       <c r="K17">
-        <v>-0.4358164890979563</v>
+        <v>-0.3291555589435655</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.2739337649521302</v>
+        <v>0.03410698399933688</v>
       </c>
       <c r="C18">
-        <v>-0.05212796551697873</v>
+        <v>-0.4133510622843574</v>
       </c>
       <c r="D18">
-        <v>0.1161633326929892</v>
+        <v>-0.7417640473592811</v>
       </c>
       <c r="E18">
-        <v>-0.005628221849394955</v>
+        <v>0.5728535393575385</v>
       </c>
       <c r="F18">
-        <v>-0.4520682902041643</v>
+        <v>0.5653943144372757</v>
       </c>
       <c r="G18">
-        <v>0.3755077591069045</v>
+        <v>-0.3308045543580189</v>
       </c>
       <c r="H18">
-        <v>-0.2408668613996343</v>
+        <v>0.6672588891775574</v>
       </c>
       <c r="I18">
-        <v>-0.4311436340544636</v>
+        <v>-0.6317545357715714</v>
       </c>
       <c r="J18">
-        <v>-0.03691727320342111</v>
+        <v>-0.3322571411601675</v>
       </c>
       <c r="K18">
-        <v>0.06651110585622637</v>
+        <v>-0.3320010918266424</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.09311645694672031</v>
+        <v>-0.4080669566657784</v>
       </c>
       <c r="C19">
-        <v>0.01527984729520105</v>
+        <v>-0.7653784042673313</v>
       </c>
       <c r="D19">
-        <v>-0.4566123402178152</v>
+        <v>0.5660786297614319</v>
       </c>
       <c r="E19">
-        <v>0.3856951532903661</v>
+        <v>0.5491308438633489</v>
       </c>
       <c r="F19">
-        <v>-0.2392021825428093</v>
+        <v>-0.3417653133266894</v>
       </c>
       <c r="G19">
-        <v>-0.4245504676784779</v>
+        <v>0.6533466985036619</v>
       </c>
       <c r="H19">
-        <v>-0.03317278574110055</v>
+        <v>-0.6440290691351285</v>
       </c>
       <c r="I19">
-        <v>0.07190132124647228</v>
+        <v>-0.3454379331200693</v>
       </c>
       <c r="J19">
-        <v>-0.4310847158649335</v>
+        <v>-0.3446815619204011</v>
       </c>
       <c r="K19">
-        <v>-0.7293274770734515</v>
+        <v>1.954912368214557</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.4567210375971377</v>
+        <v>-1.009611554956979</v>
       </c>
       <c r="C20">
-        <v>0.3747269520757457</v>
+        <v>0.7097890346793292</v>
       </c>
       <c r="D20">
-        <v>-0.2433036489553422</v>
+        <v>0.4804965528206984</v>
       </c>
       <c r="E20">
-        <v>-0.4329540822380194</v>
+        <v>-0.2955571802717373</v>
       </c>
       <c r="F20">
-        <v>-0.03889496017021347</v>
+        <v>0.6375583254648635</v>
       </c>
       <c r="G20">
-        <v>0.06451523817405955</v>
+        <v>-0.6263587541052386</v>
       </c>
       <c r="H20">
-        <v>-0.4374422929132044</v>
+        <v>-0.3458240075971326</v>
       </c>
       <c r="I20">
-        <v>-0.7363186257313737</v>
+        <v>-0.3353233694186954</v>
       </c>
       <c r="J20">
-        <v>0.5630363638553576</v>
+        <v>1.959012009033399</v>
       </c>
       <c r="K20">
-        <v>0.5634066144419662</v>
+        <v>-1.437932183129207</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0148861085577528</v>
+        <v>0.114405471535011</v>
       </c>
       <c r="C21">
-        <v>-0.5479058661610976</v>
+        <v>0.816480780133377</v>
       </c>
       <c r="D21">
-        <v>0.03978870980693717</v>
+        <v>-0.4645997170205444</v>
       </c>
       <c r="E21">
-        <v>0.03404750515338141</v>
+        <v>0.7399657578792963</v>
       </c>
       <c r="F21">
-        <v>-0.406382396938896</v>
+        <v>-0.6696819333223905</v>
       </c>
       <c r="G21">
-        <v>-0.7399416274804987</v>
+        <v>-0.3109223468240641</v>
       </c>
       <c r="H21">
-        <v>0.5789641985972922</v>
+        <v>-0.3424104166907787</v>
       </c>
       <c r="I21">
-        <v>0.5683134699217867</v>
+        <v>1.974463337984446</v>
       </c>
       <c r="J21">
-        <v>-0.3256863679671489</v>
+        <v>-1.434578926402435</v>
       </c>
       <c r="K21">
-        <v>0.6709333989562426</v>
+        <v>-1.429733381282172</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.3007742000929676</v>
+        <v>0.9141752486547438</v>
       </c>
       <c r="C22">
-        <v>0.2132722932354767</v>
+        <v>-0.4579070893754077</v>
       </c>
       <c r="D22">
-        <v>-0.5032558974075209</v>
+        <v>0.776634073510837</v>
       </c>
       <c r="E22">
-        <v>-0.6923162438719521</v>
+        <v>-0.6390259997335362</v>
       </c>
       <c r="F22">
-        <v>0.5510548222952787</v>
+        <v>-0.2820743490986328</v>
       </c>
       <c r="G22">
-        <v>0.5799410159116057</v>
+        <v>-0.3101093993557563</v>
       </c>
       <c r="H22">
-        <v>-0.3347918320471895</v>
+        <v>2.003690339384715</v>
       </c>
       <c r="I22">
-        <v>0.6727221957161168</v>
+        <v>-1.403102249070038</v>
       </c>
       <c r="J22">
-        <v>-0.6311100819951341</v>
+        <v>-1.399758769098815</v>
       </c>
       <c r="K22">
-        <v>-0.3291555589435655</v>
+        <v>-0.1014045118344325</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.03410698399933688</v>
+        <v>-0.1361519322734115</v>
       </c>
       <c r="C23">
-        <v>-0.4133510622843574</v>
+        <v>0.575669307498476</v>
       </c>
       <c r="D23">
-        <v>-0.7417640473592811</v>
+        <v>-0.5891937074804819</v>
       </c>
       <c r="E23">
-        <v>0.5728535393575385</v>
+        <v>-0.3501428451814179</v>
       </c>
       <c r="F23">
-        <v>0.5653943144372757</v>
+        <v>-0.3224751642593178</v>
       </c>
       <c r="G23">
-        <v>-0.3308045543580189</v>
+        <v>1.964978864527836</v>
       </c>
       <c r="H23">
-        <v>0.6672588891775574</v>
+        <v>-1.429331094068803</v>
       </c>
       <c r="I23">
-        <v>-0.6317545357715714</v>
+        <v>-1.431911649429943</v>
       </c>
       <c r="J23">
-        <v>-0.3322571411601675</v>
+        <v>-0.1307413063676053</v>
       </c>
       <c r="K23">
-        <v>-0.3320010918266424</v>
+        <v>0.06872791575767301</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.4080669566657784</v>
+        <v>0.4735917878807178</v>
       </c>
       <c r="C24">
-        <v>-0.7653784042673313</v>
+        <v>-0.5508850810170358</v>
       </c>
       <c r="D24">
-        <v>0.5660786297614319</v>
+        <v>-0.3884273005650942</v>
       </c>
       <c r="E24">
-        <v>0.5491308438633489</v>
+        <v>-0.3192142679746804</v>
       </c>
       <c r="F24">
-        <v>-0.3417653133266894</v>
+        <v>1.946004651632186</v>
       </c>
       <c r="G24">
-        <v>0.6533466985036619</v>
+        <v>-1.436512972353424</v>
       </c>
       <c r="H24">
-        <v>-0.6440290691351285</v>
+        <v>-1.445299966400673</v>
       </c>
       <c r="I24">
-        <v>-0.3454379331200693</v>
+        <v>-0.1408834158214032</v>
       </c>
       <c r="J24">
-        <v>-0.3446815619204011</v>
+        <v>0.05689672425625601</v>
       </c>
       <c r="K24">
-        <v>0.3989694906075438</v>
+        <v>-0.141987522853299</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1.009611554956979</v>
+        <v>-0.364632090238947</v>
       </c>
       <c r="C25">
-        <v>0.7097890346793292</v>
+        <v>-0.521559506567266</v>
       </c>
       <c r="D25">
-        <v>0.4804965528206984</v>
+        <v>-0.2545335119290255</v>
       </c>
       <c r="E25">
-        <v>-0.2955571802717373</v>
+        <v>1.897346250189805</v>
       </c>
       <c r="F25">
-        <v>0.6375583254648635</v>
+        <v>-1.419291766091809</v>
       </c>
       <c r="G25">
-        <v>-0.6263587541052386</v>
+        <v>-1.466016755697149</v>
       </c>
       <c r="H25">
-        <v>-0.3458240075971326</v>
+        <v>-0.13979705283059</v>
       </c>
       <c r="I25">
-        <v>-0.3353233694186954</v>
+        <v>0.04549450765656059</v>
       </c>
       <c r="J25">
-        <v>0.4030691314263861</v>
+        <v>-0.1462537688095535</v>
       </c>
       <c r="K25">
-        <v>0.6876623373176759</v>
+        <v>-1.250883030364385</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.114405471535011</v>
+        <v>-0.6520698539071683</v>
       </c>
       <c r="C26">
-        <v>0.816480780133377</v>
+        <v>-0.1726756814439499</v>
       </c>
       <c r="D26">
-        <v>-0.4645997170205444</v>
+        <v>1.874203082664585</v>
       </c>
       <c r="E26">
-        <v>0.7399657578792963</v>
+        <v>-1.39353761410064</v>
       </c>
       <c r="F26">
-        <v>-0.6696819333223905</v>
+        <v>-1.462801791549015</v>
       </c>
       <c r="G26">
-        <v>-0.3109223468240641</v>
+        <v>-0.126546054278101</v>
       </c>
       <c r="H26">
-        <v>-0.3424104166907787</v>
+        <v>0.05447415404343003</v>
       </c>
       <c r="I26">
-        <v>0.418520460377433</v>
+        <v>-0.1355902026097235</v>
       </c>
       <c r="J26">
-        <v>0.691015594044448</v>
+        <v>-1.240791393026647</v>
       </c>
       <c r="K26">
-        <v>0.4995326796185425</v>
+        <v>-0.1380686350848901</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.9141752486547438</v>
+        <v>-0.4579468433726672</v>
       </c>
       <c r="C27">
-        <v>-0.4579070893754077</v>
+        <v>2.021585116505415</v>
       </c>
       <c r="D27">
-        <v>0.776634073510837</v>
+        <v>-1.458168194317537</v>
       </c>
       <c r="E27">
-        <v>-0.6390259997335362</v>
+        <v>-1.423228510084593</v>
       </c>
       <c r="F27">
-        <v>-0.2820743490986328</v>
+        <v>-0.138558005975578</v>
       </c>
       <c r="G27">
-        <v>-0.3101093993557563</v>
+        <v>0.0681666307901502</v>
       </c>
       <c r="H27">
-        <v>0.4477474617777026</v>
+        <v>-0.1347833352160537</v>
       </c>
       <c r="I27">
-        <v>0.7224922713768452</v>
+        <v>-1.2334892453862</v>
       </c>
       <c r="J27">
-        <v>0.5295072918018988</v>
+        <v>-0.1340569362677573</v>
       </c>
       <c r="K27">
-        <v>0.1536741838331279</v>
+        <v>0.06619209816797142</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.1361519322734115</v>
+        <v>1.843153871003498</v>
       </c>
       <c r="C28">
-        <v>0.575669307498476</v>
+        <v>-1.368627872769512</v>
       </c>
       <c r="D28">
-        <v>-0.5891937074804819</v>
+        <v>-1.460516420724753</v>
       </c>
       <c r="E28">
-        <v>-0.3501428451814179</v>
+        <v>-0.1171547397092367</v>
       </c>
       <c r="F28">
-        <v>-0.3224751642593178</v>
+        <v>0.06225101682469609</v>
       </c>
       <c r="G28">
-        <v>0.409035986920823</v>
+        <v>-0.1279799812156947</v>
       </c>
       <c r="H28">
-        <v>0.6962634263780803</v>
+        <v>-1.232615057495363</v>
       </c>
       <c r="I28">
-        <v>0.497354411470771</v>
+        <v>-0.1304159624197572</v>
       </c>
       <c r="J28">
-        <v>0.1243373892999552</v>
+        <v>0.06854067593419338</v>
       </c>
       <c r="K28">
-        <v>2.137058649517275</v>
+        <v>-0.3309643014798451</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.4735917878807178</v>
+        <v>-0.7357143237971899</v>
       </c>
       <c r="C29">
-        <v>-0.5508850810170358</v>
+        <v>-1.793452669320625</v>
       </c>
       <c r="D29">
-        <v>-0.3884273005650942</v>
+        <v>-0.02848020447002664</v>
       </c>
       <c r="E29">
-        <v>-0.3192142679746804</v>
+        <v>-0.03020227999399719</v>
       </c>
       <c r="F29">
-        <v>0.3900617740251738</v>
+        <v>-0.142544311111071</v>
       </c>
       <c r="G29">
-        <v>0.6890815480934592</v>
+        <v>-1.280628122169064</v>
       </c>
       <c r="H29">
-        <v>0.4839660945000416</v>
+        <v>-0.1640818365805542</v>
       </c>
       <c r="I29">
-        <v>0.1141952798461572</v>
+        <v>0.02872931640818369</v>
       </c>
       <c r="J29">
-        <v>2.125227458015858</v>
+        <v>-0.3681473516680722</v>
       </c>
       <c r="K29">
-        <v>-0.002160573217156125</v>
+        <v>-0.0695043428244675</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.364632090238947</v>
+        <v>-2.14000385491159</v>
       </c>
       <c r="C30">
-        <v>-0.521559506567266</v>
+        <v>0.154301520551817</v>
       </c>
       <c r="D30">
-        <v>-0.2545335119290255</v>
+        <v>-0.0975851071045272</v>
       </c>
       <c r="E30">
-        <v>0.3414033725827919</v>
+        <v>-0.09260557883716762</v>
       </c>
       <c r="F30">
-        <v>0.7063027543550743</v>
+        <v>-1.285570473472116</v>
       </c>
       <c r="G30">
-        <v>0.4632493052035653</v>
+        <v>-0.1434084813983161</v>
       </c>
       <c r="H30">
-        <v>0.1152816428369704</v>
+        <v>0.03746998562674347</v>
       </c>
       <c r="I30">
-        <v>2.113825241416162</v>
+        <v>-0.353857915065504</v>
       </c>
       <c r="J30">
-        <v>-0.006426819173410675</v>
+        <v>-0.05779093161614784</v>
       </c>
       <c r="K30">
-        <v>-0.317823204948507</v>
+        <v>-0.4560072090565495</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.6520698539071683</v>
+        <v>-0.8036402473362195</v>
       </c>
       <c r="C31">
-        <v>-0.1726756814439499</v>
+        <v>0.02064112156369904</v>
       </c>
       <c r="D31">
-        <v>0.3182602050575726</v>
+        <v>-0.003823636048593995</v>
       </c>
       <c r="E31">
-        <v>0.7320569063462431</v>
+        <v>-1.293312048711299</v>
       </c>
       <c r="F31">
-        <v>0.4664642693516996</v>
+        <v>-0.1556373262779346</v>
       </c>
       <c r="G31">
-        <v>0.1285326413894594</v>
+        <v>0.06724147975559121</v>
       </c>
       <c r="H31">
-        <v>2.122804887803032</v>
+        <v>-0.3488723804847023</v>
       </c>
       <c r="I31">
-        <v>0.004236747026419366</v>
+        <v>-0.04723067429999132</v>
       </c>
       <c r="J31">
-        <v>-0.3077315676107696</v>
+        <v>-0.4446902214345054</v>
       </c>
       <c r="K31">
-        <v>-0.07598350915077963</v>
+        <v>0.3540198255243712</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.4579468433726672</v>
+        <v>-0.3133846901392021</v>
       </c>
       <c r="C32">
-        <v>0.465642238898402</v>
+        <v>-0.01507490426144659</v>
       </c>
       <c r="D32">
-        <v>0.6674263261293458</v>
+        <v>-1.14624794847245</v>
       </c>
       <c r="E32">
-        <v>0.506037550816121</v>
+        <v>-0.1376187625909838</v>
       </c>
       <c r="F32">
-        <v>0.1165206896919824</v>
+        <v>0.09318086608498495</v>
       </c>
       <c r="G32">
-        <v>2.136497364549752</v>
+        <v>-0.2968074831387105</v>
       </c>
       <c r="H32">
-        <v>0.005043614420089125</v>
+        <v>-0.005663866116877891</v>
       </c>
       <c r="I32">
-        <v>-0.3004294199703225</v>
+        <v>-0.4052874576090156</v>
       </c>
       <c r="J32">
-        <v>-0.07197181033364687</v>
+        <v>0.3963842055855632</v>
       </c>
       <c r="K32">
-        <v>0.01186418089605213</v>
+        <v>0.09585953184990151</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.5793369168206982</v>
+        <v>0.005276208347461092</v>
       </c>
       <c r="C33">
-        <v>0.6070432755169437</v>
+        <v>-1.231934372480799</v>
       </c>
       <c r="D33">
-        <v>0.5309611414933748</v>
+        <v>-0.139694263571483</v>
       </c>
       <c r="E33">
-        <v>0.1005450380528822</v>
+        <v>0.09118797110015955</v>
       </c>
       <c r="F33">
-        <v>2.140145685654708</v>
+        <v>-0.3151561170054477</v>
       </c>
       <c r="G33">
-        <v>-0.0007007554816501615</v>
+        <v>-0.02001693141650883</v>
       </c>
       <c r="H33">
-        <v>-0.3016858045919858</v>
+        <v>-0.4174261273998334</v>
       </c>
       <c r="I33">
-        <v>-0.07536916647971006</v>
+        <v>0.3829276581826542</v>
       </c>
       <c r="J33">
-        <v>0.009486688182446919</v>
+        <v>0.08229100247818455</v>
       </c>
       <c r="K33">
-        <v>0.4786826912366427</v>
+        <v>-0.01761900037286331</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.546104528988925</v>
+        <v>-1.240196738353266</v>
       </c>
       <c r="C34">
-        <v>0.382459169115953</v>
+        <v>-0.1302739558631109</v>
       </c>
       <c r="D34">
-        <v>0.05989755179494234</v>
+        <v>0.1018097691644648</v>
       </c>
       <c r="E34">
-        <v>2.06695808844907</v>
+        <v>-0.3085412544737633</v>
       </c>
       <c r="F34">
-        <v>-0.05493101606206351</v>
+        <v>-0.01389215334134111</v>
       </c>
       <c r="G34">
-        <v>-0.3635886959676358</v>
+        <v>-0.4100240422527167</v>
       </c>
       <c r="H34">
-        <v>-0.1335108423146784</v>
+        <v>0.3903405296116419</v>
       </c>
       <c r="I34">
-        <v>-0.05032042835086536</v>
+        <v>0.08929799803056856</v>
       </c>
       <c r="J34">
-        <v>0.4196553719862136</v>
+        <v>-0.01053485780363214</v>
       </c>
       <c r="K34">
-        <v>0.0854765613451095</v>
+        <v>-0.4103192846163877</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.6484523119063572</v>
+        <v>-0.4940706333348232</v>
       </c>
       <c r="C35">
-        <v>0.03594824128387722</v>
+        <v>-0.217114986183733</v>
       </c>
       <c r="D35">
-        <v>2.139192281204328</v>
+        <v>-0.1035579709967071</v>
       </c>
       <c r="E35">
-        <v>-0.02355400139470334</v>
+        <v>0.03809027171510437</v>
       </c>
       <c r="F35">
-        <v>-0.3172642800494014</v>
+        <v>-0.4928760141135077</v>
       </c>
       <c r="G35">
-        <v>-0.09322048109742881</v>
+        <v>0.393928908871635</v>
       </c>
       <c r="H35">
-        <v>-0.007732663589495328</v>
+        <v>0.1153414563028164</v>
       </c>
       <c r="I35">
-        <v>0.4613323974136833</v>
+        <v>-0.01923494015782303</v>
       </c>
       <c r="J35">
-        <v>0.1275069503685244</v>
+        <v>-0.417472668348435</v>
+      </c>
+      <c r="K35">
+        <v>-0.8063573198970609</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.06294205852423779</v>
+        <v>-0.008809976898933397</v>
       </c>
       <c r="C36">
-        <v>2.241770278835731</v>
+        <v>-0.3466515877004779</v>
       </c>
       <c r="D36">
-        <v>0.02867691306274487</v>
+        <v>0.00486614157355001</v>
       </c>
       <c r="E36">
-        <v>-0.3011181002842125</v>
+        <v>-0.4313134083628927</v>
       </c>
       <c r="F36">
-        <v>-0.04981167379243754</v>
+        <v>0.3621808687947978</v>
       </c>
       <c r="G36">
-        <v>0.03048115413253404</v>
+        <v>0.07624970393177549</v>
       </c>
       <c r="H36">
-        <v>0.4974711372609304</v>
+        <v>-0.02575670871752969</v>
       </c>
       <c r="I36">
-        <v>0.1648606652931266</v>
+        <v>-0.4298771937265904</v>
+      </c>
+      <c r="J36">
+        <v>-0.8279777935356101</v>
+      </c>
+      <c r="K36">
+        <v>-0.8271614686457873</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>2.604554257526952</v>
+        <v>-0.5525271085626162</v>
       </c>
       <c r="C37">
-        <v>0.6686072322057012</v>
+        <v>0.06929232909158178</v>
       </c>
       <c r="D37">
-        <v>-0.6463238006171418</v>
+        <v>-0.3806500202149145</v>
       </c>
       <c r="E37">
-        <v>-0.2390360618732401</v>
+        <v>0.3251929585991052</v>
       </c>
       <c r="F37">
-        <v>0.1722821928710533</v>
+        <v>0.07212841788013159</v>
       </c>
       <c r="G37">
-        <v>0.4952956397390058</v>
+        <v>-0.01057589158453673</v>
       </c>
       <c r="H37">
-        <v>0.07661878245500571</v>
+        <v>-0.4321043688181309</v>
+      </c>
+      <c r="I37">
+        <v>-0.8311875397918773</v>
+      </c>
+      <c r="J37">
+        <v>-0.8241199050003177</v>
+      </c>
+      <c r="K37">
+        <v>0.873324978078303</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05587424664816265</v>
+        <v>-0.1502457505331525</v>
       </c>
       <c r="C38">
-        <v>-0.2783790698453523</v>
+        <v>-0.4839027182503158</v>
       </c>
       <c r="D38">
-        <v>-0.05677320999040541</v>
+        <v>0.4409231846212941</v>
       </c>
       <c r="E38">
-        <v>0.03523992970156467</v>
+        <v>0.08357074976903528</v>
       </c>
       <c r="F38">
-        <v>0.5049261439732234</v>
+        <v>-0.03975933494173419</v>
       </c>
       <c r="G38">
-        <v>0.1687833174775991</v>
+        <v>-0.4146602032648832</v>
+      </c>
+      <c r="H38">
+        <v>-0.8144619586286806</v>
+      </c>
+      <c r="I38">
+        <v>-0.8225482645483556</v>
+      </c>
+      <c r="J38">
+        <v>0.8797288486632271</v>
+      </c>
+      <c r="K38">
+        <v>-0.5183435303384679</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.3954551913074192</v>
+        <v>-0.5406608243777576</v>
       </c>
       <c r="C39">
-        <v>-0.1322828081387394</v>
+        <v>0.4236656033257681</v>
       </c>
       <c r="D39">
-        <v>0.07358471293941501</v>
+        <v>0.122808088402659</v>
       </c>
       <c r="E39">
-        <v>0.5046288268646388</v>
+        <v>-0.02861383781479341</v>
       </c>
       <c r="F39">
-        <v>0.1390602933940995</v>
+        <v>-0.4142390889805446</v>
+      </c>
+      <c r="G39">
+        <v>-0.8020172872749682</v>
+      </c>
+      <c r="H39">
+        <v>-0.8098885641993998</v>
+      </c>
+      <c r="I39">
+        <v>0.8884285422345638</v>
+      </c>
+      <c r="J39">
+        <v>-0.5086354450443252</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.4433677071575531</v>
+        <v>0.500786433163774</v>
       </c>
       <c r="C40">
-        <v>0.1179777354611176</v>
+        <v>-0.1145363258946815</v>
       </c>
       <c r="D40">
-        <v>0.6091302192421147</v>
+        <v>-0.02135406546126113</v>
       </c>
       <c r="E40">
-        <v>0.1186378854105467</v>
+        <v>-0.3721532864660037</v>
+      </c>
+      <c r="F40">
+        <v>-0.8515220122837717</v>
+      </c>
+      <c r="G40">
+        <v>-0.8447367981561821</v>
+      </c>
+      <c r="H40">
+        <v>0.879939587064927</v>
+      </c>
+      <c r="I40">
+        <v>-0.5295901277014535</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.02045741127650033</v>
+        <v>-0.04708908422795219</v>
       </c>
       <c r="C41">
-        <v>0.5049429246811459</v>
+        <v>0.1302311701533707</v>
       </c>
       <c r="D41">
-        <v>0.1611292722030108</v>
+        <v>-0.4265949713380311</v>
+      </c>
+      <c r="E41">
+        <v>-0.8706921790729665</v>
+      </c>
+      <c r="F41">
+        <v>-0.8089186061636305</v>
+      </c>
+      <c r="G41">
+        <v>0.8878743342360432</v>
+      </c>
+      <c r="H41">
+        <v>-0.5307497996472667</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.657859519620634</v>
+        <v>0.1715855691630325</v>
       </c>
       <c r="C42">
-        <v>0.2650681797753872</v>
+        <v>-0.4584596479222077</v>
+      </c>
+      <c r="D42">
+        <v>-0.8834985523518621</v>
+      </c>
+      <c r="E42">
+        <v>-0.8040976215344423</v>
+      </c>
+      <c r="F42">
+        <v>0.8828114434142798</v>
+      </c>
+      <c r="G42">
+        <v>-0.5388427797145989</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1101076393655947</v>
+        <v>-0.2088446228838688</v>
+      </c>
+      <c r="C43">
+        <v>-0.8856348670141191</v>
+      </c>
+      <c r="D43">
+        <v>-0.8962790603086739</v>
+      </c>
+      <c r="E43">
+        <v>0.9003486772119305</v>
+      </c>
+      <c r="F43">
+        <v>-0.51509014672066</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.8802225916148673</v>
+      </c>
+      <c r="C44">
+        <v>-0.9578195895495378</v>
+      </c>
+      <c r="D44">
+        <v>0.9284583258188154</v>
+      </c>
+      <c r="E44">
+        <v>-0.4826756853501714</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-1.11548721799659</v>
+      </c>
+      <c r="C45">
+        <v>0.6731820180299313</v>
+      </c>
+      <c r="D45">
+        <v>-0.3350552374906684</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.5243661318234101</v>
+      </c>
+      <c r="C46">
+        <v>-0.6986260635473235</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.5074792631634988</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>-0.1545832836341255</v>
       </c>
-      <c r="I2">
-        <v>0.550331405091856</v>
-      </c>
-      <c r="J2">
-        <v>-0.06644183368791942</v>
-      </c>
-      <c r="K2">
-        <v>0.3876689349527519</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>0.002783548506317715</v>
       </c>
-      <c r="G3">
-        <v>0.3772827335028751</v>
-      </c>
-      <c r="H3">
-        <v>-0.01188482685516053</v>
-      </c>
-      <c r="I3">
-        <v>0.2838672235880479</v>
-      </c>
-      <c r="J3">
-        <v>-0.414639109011977</v>
-      </c>
-      <c r="K3">
-        <v>0.08492650851422405</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>-0.4324806458979892</v>
       </c>
-      <c r="I4">
-        <v>0.07014957813415834</v>
-      </c>
-      <c r="J4">
-        <v>0.2678998877541106</v>
-      </c>
-      <c r="K4">
-        <v>-0.2308102898139184</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>-0.3937541439659204</v>
       </c>
-      <c r="G5">
-        <v>0.05882896629300421</v>
-      </c>
-      <c r="H5">
-        <v>0.2867572316744673</v>
-      </c>
-      <c r="I5">
-        <v>-0.2296921338986302</v>
-      </c>
-      <c r="J5">
-        <v>0.1799962923377751</v>
-      </c>
-      <c r="K5">
-        <v>-0.7257100406063964</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>0.1912802670500428</v>
       </c>
-      <c r="I6">
-        <v>-0.7294042645788564</v>
-      </c>
-      <c r="J6">
-        <v>-0.1168510387425349</v>
-      </c>
-      <c r="K6">
-        <v>0.475530539930183</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>0.2131251432391162</v>
       </c>
-      <c r="G7">
-        <v>-0.7197876814730191</v>
-      </c>
-      <c r="H7">
-        <v>-0.1011126822396797</v>
-      </c>
-      <c r="I7">
-        <v>0.4882911660139659</v>
-      </c>
-      <c r="J7">
-        <v>-0.4056966218227393</v>
-      </c>
-      <c r="K7">
-        <v>0.2908920762476144</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-0.4087191012569538</v>
       </c>
-      <c r="I8">
-        <v>0.2886763822524853</v>
-      </c>
-      <c r="J8">
-        <v>0.290202107517566</v>
-      </c>
-      <c r="K8">
-        <v>-0.2106916620974747</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.4267157426723999</v>
       </c>
-      <c r="G9">
-        <v>0.294872182919561</v>
-      </c>
-      <c r="H9">
-        <v>0.28250329693976</v>
-      </c>
-      <c r="I9">
-        <v>-0.2104099171948289</v>
-      </c>
-      <c r="J9">
-        <v>-0.1144703084337619</v>
-      </c>
-      <c r="K9">
-        <v>-0.1121438975055275</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>-0.1291049390893971</v>
       </c>
-      <c r="I10">
-        <v>-0.09817784742712052</v>
-      </c>
-      <c r="J10">
-        <v>0.1836230688709643</v>
-      </c>
-      <c r="K10">
-        <v>-0.00566765910846115</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>-0.09694799622084638</v>
       </c>
-      <c r="G11">
-        <v>-0.1517913137601253</v>
-      </c>
-      <c r="H11">
-        <v>0.1806351871142338</v>
-      </c>
-      <c r="I11">
-        <v>-0.03853721175013792</v>
-      </c>
-      <c r="J11">
-        <v>-0.427201394800956</v>
-      </c>
-      <c r="K11">
-        <v>0.366096222945556</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-0.4272508419074882</v>
       </c>
-      <c r="I12">
-        <v>0.3614659921462614</v>
-      </c>
-      <c r="J12">
-        <v>-0.23181296049532</v>
-      </c>
-      <c r="K12">
-        <v>-0.4358164890979563</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-0.03691727320342111</v>
       </c>
-      <c r="K13">
-        <v>0.06651110585622637</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-0.03317278574110055</v>
       </c>
-      <c r="I14">
-        <v>0.07190132124647228</v>
-      </c>
-      <c r="J14">
-        <v>-0.4310847158649335</v>
-      </c>
-      <c r="K14">
-        <v>-0.7293274770734515</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.5630363638553576</v>
       </c>
-      <c r="K15">
-        <v>0.5634066144419662</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.5789641985972922</v>
       </c>
-      <c r="I16">
-        <v>0.5683134699217867</v>
-      </c>
-      <c r="J16">
-        <v>-0.3256863679671489</v>
-      </c>
-      <c r="K16">
-        <v>0.6709333989562426</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>-0.6311100819951341</v>
       </c>
-      <c r="K17">
-        <v>-0.3291555589435655</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>-0.6317545357715714</v>
       </c>
-      <c r="J18">
-        <v>-0.3322571411601675</v>
-      </c>
-      <c r="K18">
-        <v>-0.3320010918266424</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>-0.6440290691351285</v>
       </c>
-      <c r="I19">
-        <v>-0.3454379331200693</v>
-      </c>
-      <c r="J19">
-        <v>-0.3446815619204011</v>
-      </c>
-      <c r="K19">
-        <v>1.954912368214557</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-1.434578926402435</v>
       </c>
-      <c r="K21">
-        <v>-1.429733381282172</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-1.403102249070038</v>
       </c>
-      <c r="J22">
-        <v>-1.399758769098815</v>
-      </c>
-      <c r="K22">
-        <v>-0.1014045118344325</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-1.429331094068803</v>
       </c>
-      <c r="I23">
-        <v>-1.431911649429943</v>
-      </c>
-      <c r="J23">
-        <v>-0.1307413063676053</v>
-      </c>
-      <c r="K23">
-        <v>0.06872791575767301</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-0.1462537688095535</v>
       </c>
-      <c r="K25">
-        <v>-1.250883030364385</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-0.1355902026097235</v>
       </c>
-      <c r="J26">
-        <v>-1.240791393026647</v>
-      </c>
-      <c r="K26">
-        <v>-0.1380686350848901</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-0.1347833352160537</v>
       </c>
-      <c r="I27">
-        <v>-1.2334892453862</v>
-      </c>
-      <c r="J27">
-        <v>-0.1340569362677573</v>
-      </c>
-      <c r="K27">
-        <v>0.06619209816797142</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>-0.3681473516680722</v>
       </c>
-      <c r="K29">
-        <v>-0.0695043428244675</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>-0.353857915065504</v>
       </c>
-      <c r="J30">
-        <v>-0.05779093161614784</v>
-      </c>
-      <c r="K30">
-        <v>-0.4560072090565495</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>-0.3488723804847023</v>
       </c>
-      <c r="I31">
-        <v>-0.04723067429999132</v>
-      </c>
-      <c r="J31">
-        <v>-0.4446902214345054</v>
-      </c>
-      <c r="K31">
-        <v>0.3540198255243712</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>0.08229100247818455</v>
       </c>
-      <c r="K33">
-        <v>-0.01761900037286331</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>0.08929799803056856</v>
       </c>
-      <c r="J34">
-        <v>-0.01053485780363214</v>
-      </c>
-      <c r="K34">
-        <v>-0.4103192846163877</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>0.1153414563028164</v>
       </c>
-      <c r="I35">
-        <v>-0.01923494015782303</v>
-      </c>
-      <c r="J35">
-        <v>-0.417472668348435</v>
-      </c>
-      <c r="K35">
-        <v>-0.8063573198970609</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>-0.8241199050003177</v>
       </c>
-      <c r="K37">
-        <v>0.873324978078303</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>-0.8225482645483556</v>
       </c>
-      <c r="J38">
-        <v>0.8797288486632271</v>
-      </c>
-      <c r="K38">
-        <v>-0.5183435303384679</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>-0.8098885641993998</v>
-      </c>
-      <c r="I39">
-        <v>0.8884285422345638</v>
-      </c>
-      <c r="J39">
-        <v>-0.5086354450443252</v>
       </c>
     </row>
     <row r="40" spans="1:11">
